--- a/Results_hammond_b3.xlsx
+++ b/Results_hammond_b3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="692">
   <si>
     <t>itemId</t>
   </si>
@@ -23,7 +23,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>condition</t>
+    <t>conditionDisplayName</t>
   </si>
   <si>
     <t>currentPrice</t>
@@ -62,6 +62,15 @@
     <t>viewItemURL</t>
   </si>
   <si>
+    <t>sellerUserName</t>
+  </si>
+  <si>
+    <t>feedbackScore</t>
+  </si>
+  <si>
+    <t>positiveFeedbackPercent</t>
+  </si>
+  <si>
     <t>352379754889</t>
   </si>
   <si>
@@ -95,6 +104,15 @@
     <t>http://www.ebay.com/itm/Serviced-1964-Hammond-A100-Organ-Worldwide-shipping-B3-C3-etc-/352379754889</t>
   </si>
   <si>
+    <t>stevestonaudiosales</t>
+  </si>
+  <si>
+    <t>2133</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
     <t>183272697573</t>
   </si>
   <si>
@@ -116,6 +134,12 @@
     <t>http://www.ebay.com/itm/Hammond-C-3-Organ-and-Leslie-122-/183272697573</t>
   </si>
   <si>
+    <t>lenae424</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>183272696830</t>
   </si>
   <si>
@@ -152,6 +176,15 @@
     <t>http://www.ebay.com/itm/hammond-organ-a100-/173363859834</t>
   </si>
   <si>
+    <t>senator.646</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>173337945274</t>
   </si>
   <si>
@@ -173,6 +206,12 @@
     <t>http://www.ebay.com/itm/Nice-Hammond-A105-Organ-C3-Speakers-B3-/173337945274</t>
   </si>
   <si>
+    <t>tommysmusicshop</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
     <t>202339402914</t>
   </si>
   <si>
@@ -191,6 +230,12 @@
     <t>http://www.ebay.com/itm/hammond-organ-C-3-very-good-condition-Only-one-owner-/202339402914</t>
   </si>
   <si>
+    <t>toonacurve6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>173360993708</t>
   </si>
   <si>
@@ -209,6 +254,12 @@
     <t>http://www.ebay.com/itm/Hammond-Organ-Chop-A-100-identical-B-3-/173360993708</t>
   </si>
   <si>
+    <t>recycledave</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
     <t>232801260559</t>
   </si>
   <si>
@@ -227,6 +278,12 @@
     <t>http://www.ebay.com/itm/C-2-Hammond-Organ-Smooth-Drawbars-Bench-JR-20-Amp-/232801260559</t>
   </si>
   <si>
+    <t>rleyshon</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
     <t>223017354539</t>
   </si>
   <si>
@@ -245,6 +302,12 @@
     <t>http://www.ebay.com/itm/REDUCED-500-BUY-NOW-ONLY-2500-00-Hammond-BC-organ-upgraded-B3-/223017354539</t>
   </si>
   <si>
+    <t>amy_ren1</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
     <t>142824049222</t>
   </si>
   <si>
@@ -263,6 +326,12 @@
     <t>http://www.ebay.com/itm/HAMMOND-B3-Clone-Tokai-TX-5-Classic-2-Keyboard-PRICE-REDUCED-DRASTICALLY-/142824049222</t>
   </si>
   <si>
+    <t>giver1st</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
     <t>263741053599</t>
   </si>
   <si>
@@ -284,6 +353,12 @@
     <t>http://www.ebay.com/itm/HAMMOND-B-2-JR20-tone-cabinet-B3-WORKS-/263741053599</t>
   </si>
   <si>
+    <t>westgatechapel419</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>192562822254</t>
   </si>
   <si>
@@ -302,6 +377,15 @@
     <t>http://www.ebay.com/itm/Vintage-HAMMOND-A-100-Organ-/192562822254</t>
   </si>
   <si>
+    <t>simsindy</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
     <t>292566687844</t>
   </si>
   <si>
@@ -320,6 +404,15 @@
     <t>http://www.ebay.com/itm/1965-Hammond-B3-PR-40-Tone-Cabinet-Time-Capsule-/292566687844</t>
   </si>
   <si>
+    <t>mojohand</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>99.5</t>
+  </si>
+  <si>
     <t>292597076281</t>
   </si>
   <si>
@@ -338,6 +431,12 @@
     <t>http://www.ebay.com/itm/Hammond-C2-Organ-H40-Tone-Cabinet-/292597076281</t>
   </si>
   <si>
+    <t>twist1ne</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>132649342191</t>
   </si>
   <si>
@@ -356,6 +455,15 @@
     <t>http://www.ebay.com/itm/Hammond-B3-organ-leslie-122-cabinet-/132649342191</t>
   </si>
   <si>
+    <t>howesdog</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
     <t>332652658329</t>
   </si>
   <si>
@@ -371,6 +479,12 @@
     <t>http://www.ebay.com/itm/Hammond-C3-Organ-Same-B3-but-full-cabinet-Rock-and-Roll-Excellent-/332652658329</t>
   </si>
   <si>
+    <t>housedressingblue</t>
+  </si>
+  <si>
+    <t>3352</t>
+  </si>
+  <si>
     <t>253682130893</t>
   </si>
   <si>
@@ -389,6 +503,12 @@
     <t>http://www.ebay.com/itm/1956-Hammond-C-3-Organ-w-Leslie-142-/253682130893</t>
   </si>
   <si>
+    <t>jimr98</t>
+  </si>
+  <si>
+    <t>948</t>
+  </si>
+  <si>
     <t>223008011051</t>
   </si>
   <si>
@@ -425,6 +545,9 @@
     <t>http://www.ebay.com/itm/1957-Hammond-B3-Organ-147-Leslie-Just-Serviced-Amazing-Condition-/132622054476</t>
   </si>
   <si>
+    <t>ricpezzul0</t>
+  </si>
+  <si>
     <t>173352679003</t>
   </si>
   <si>
@@ -440,6 +563,9 @@
     <t>http://www.ebay.com/itm/1966-Hammond-B3-Organ-Leslie-122-Speaker-worldwide-shipping-/173352679003</t>
   </si>
   <si>
+    <t>2127</t>
+  </si>
+  <si>
     <t>263720887331</t>
   </si>
   <si>
@@ -458,6 +584,12 @@
     <t>http://www.ebay.com/itm/Classic-Hammond-B3-Organ-Bench-and-Pedals-/263720887331</t>
   </si>
   <si>
+    <t>yellow-lab</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
     <t>173349514764</t>
   </si>
   <si>
@@ -488,6 +620,15 @@
     <t>http://www.ebay.com/itm/Hammond-A100-Model-25-Leslie-/253658865296</t>
   </si>
   <si>
+    <t>trixon_drums</t>
+  </si>
+  <si>
+    <t>1493</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
     <t>332672145539</t>
   </si>
   <si>
@@ -506,6 +647,12 @@
     <t>http://www.ebay.com/itm/Nice-HAMMOND-A-100-organ-122-LESLIE-speaker-w-bench-pedals-All-Good-b3-/332672145539</t>
   </si>
   <si>
+    <t>nomidi</t>
+  </si>
+  <si>
+    <t>1314</t>
+  </si>
+  <si>
     <t>253675614815</t>
   </si>
   <si>
@@ -551,6 +698,12 @@
     <t>http://www.ebay.com/itm/1952-Hammond-B2-Organ-Modded-Bill-Beer-Leslies-/292559600195</t>
   </si>
   <si>
+    <t>shikbyrd</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
     <t>153052488421</t>
   </si>
   <si>
@@ -569,6 +722,12 @@
     <t>http://www.ebay.com/itm/Hammond-B3-Organ-Leslie-760-Speaker-/153052488421</t>
   </si>
   <si>
+    <t>interactivemedia1</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>292590950325</t>
   </si>
   <si>
@@ -593,6 +752,9 @@
     <t>http://www.ebay.com/itm/Serviced-1964-Hammond-A100-Organ-Worldwide-shipping-B3-C3-etc-/352370005473</t>
   </si>
   <si>
+    <t>2125</t>
+  </si>
+  <si>
     <t>173309623125</t>
   </si>
   <si>
@@ -608,6 +770,9 @@
     <t>http://www.ebay.com/itm/Hammond-Suzuki-B3-Digital-Organ-Custom-Chop-Cabinet-Xk3-/173309623125</t>
   </si>
   <si>
+    <t>1125</t>
+  </si>
+  <si>
     <t>183250652879</t>
   </si>
   <si>
@@ -638,6 +803,12 @@
     <t>http://www.ebay.com/itm/HAMMOND-A-100-A100-ORGAN-BENCH-BASS-PEDALS-COMPLETELY-SERVICED-/173306654993</t>
   </si>
   <si>
+    <t>schroederspianos</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
     <t>222998824209</t>
   </si>
   <si>
@@ -683,6 +854,12 @@
     <t>http://www.ebay.com/itm/TUBE-OVERDRIVE-HAMMOND-B3-A100-C2-C3-RT3-M100-M3-L100-/153013482150</t>
   </si>
   <si>
+    <t>doremi721</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>132643340960</t>
   </si>
   <si>
@@ -695,6 +872,9 @@
     <t>http://www.ebay.com/itm/HAMMOND-B3-Clone-Tokai-TX-5-Classic-2-Keyboard-PRICE-REDUCED-DRASTICALLY-/132643340960</t>
   </si>
   <si>
+    <t>1917</t>
+  </si>
+  <si>
     <t>292087943526</t>
   </si>
   <si>
@@ -713,6 +893,12 @@
     <t>http://www.ebay.com/itm/1965-Hammond-B3-Leslie-122-Collectors-players-dream-Cherrywood-set-/292087943526</t>
   </si>
   <si>
+    <t>dwpdaddy8864</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>192553481199</t>
   </si>
   <si>
@@ -737,6 +923,9 @@
     <t>http://www.ebay.com/itm/1966-Hammond-B3-Organ-Leslie-122-Speaker-worldwide-shipping-/352366951847</t>
   </si>
   <si>
+    <t>2124</t>
+  </si>
+  <si>
     <t>273259390145</t>
   </si>
   <si>
@@ -755,6 +944,12 @@
     <t>http://www.ebay.com/itm/Hammond-A-100-Organ-Ebony-Solid-State-Setup-Leslie-Speaker-Cabinet-/273259390145</t>
   </si>
   <si>
+    <t>roughcutministries</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
     <t>173303207298</t>
   </si>
   <si>
@@ -773,6 +968,12 @@
     <t>http://www.ebay.com/itm/Hammond-B-3-Custom-W-Leslie-Speaker-PRICE-CUT-/173303207298</t>
   </si>
   <si>
+    <t>lutherjohnson0</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>132635391941</t>
   </si>
   <si>
@@ -803,6 +1004,12 @@
     <t>http://www.ebay.com/itm/HAMMOND-C3-ORGAN-W-LESLIE-SPEAKER-/323241024846</t>
   </si>
   <si>
+    <t>teb829</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
     <t>173338211291</t>
   </si>
   <si>
@@ -839,6 +1046,9 @@
     <t>http://www.ebay.com/itm/Serviced-1964-Hammond-A100-Organ-Worldwide-shipping-B3-C3-etc-/352364586774</t>
   </si>
   <si>
+    <t>2123</t>
+  </si>
+  <si>
     <t>173335638408</t>
   </si>
   <si>
@@ -872,6 +1082,12 @@
     <t>http://www.ebay.com/itm/Beautiful-Hammond-A100-Only-1-Previous-Owner-Just-Serviced-NYC-/183242294331</t>
   </si>
   <si>
+    <t>leptysan</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
     <t>132632012024</t>
   </si>
   <si>
@@ -884,6 +1100,9 @@
     <t>http://www.ebay.com/itm/HAMMOND-B3-Clone-Tokai-TX-5-Classic-2-Keyboard-PRICE-REDUCED-DRASTICALLY-/132632012024</t>
   </si>
   <si>
+    <t>1916</t>
+  </si>
+  <si>
     <t>183236740815</t>
   </si>
   <si>
@@ -926,6 +1145,12 @@
     <t>http://www.ebay.com/itm/Hammond-B3-Organ-bench-and-PR-40-Speaker-Reverberation-Cabinet-/232784174748</t>
   </si>
   <si>
+    <t>univac_unimic</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>123104144489</t>
   </si>
   <si>
@@ -944,6 +1169,12 @@
     <t>http://www.ebay.com/itm/Hammond-XC3-Organ-B3-Motherboard-Leslie-Bench-Cables-Owners-Manuals-/123104144489</t>
   </si>
   <si>
+    <t>shultzeej</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>153035125614</t>
   </si>
   <si>
@@ -956,6 +1187,9 @@
     <t>http://www.ebay.com/itm/Hammond-B3-Organ-Leslie-760-Speaker-/153035125614</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>273223684472</t>
   </si>
   <si>
@@ -980,6 +1214,9 @@
     <t>http://www.ebay.com/itm/1966-Hammond-B3-Organ-Leslie-122-Speaker-worldwide-shipping-/173325284277</t>
   </si>
   <si>
+    <t>2119</t>
+  </si>
+  <si>
     <t>173324709219</t>
   </si>
   <si>
@@ -992,6 +1229,9 @@
     <t>http://www.ebay.com/itm/Serviced-Hammond-B3-Organ-Leslie-122RV-Speaker-worldwide-shipping-/173324709219</t>
   </si>
   <si>
+    <t>2118</t>
+  </si>
+  <si>
     <t>352358766648</t>
   </si>
   <si>
@@ -1022,6 +1262,12 @@
     <t>http://www.ebay.com/itm/Hammond-electric-organ-model-A-100-Leslie-speaker-model-147-/282966518720</t>
   </si>
   <si>
+    <t>e.r.davis</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>282938607936</t>
   </si>
   <si>
@@ -1040,6 +1286,12 @@
     <t>http://www.ebay.com/itm/Hammond-C3-Organ-Deep-Purple-sound-/282938607936</t>
   </si>
   <si>
+    <t>qotudzn35</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
     <t>153031157858</t>
   </si>
   <si>
@@ -1070,28 +1322,7 @@
     <t>http://www.ebay.com/itm/Hammond-B3-Leslie-222-speaker-/273233381521</t>
   </si>
   <si>
-    <t>132619398650</t>
-  </si>
-  <si>
-    <t>2018-05-12T07:19:55.000Z</t>
-  </si>
-  <si>
-    <t>2018-05-22T07:19:55.000Z</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/HAMMOND-B3-Clone-Tokai-TX-5-Classic-2-Keyboard-PRICE-REDUCED-DRASTICALLY-/132619398650</t>
-  </si>
-  <si>
-    <t>153027374672</t>
-  </si>
-  <si>
-    <t>2018-05-18T16:25:37.000Z</t>
-  </si>
-  <si>
-    <t>2018-05-21T16:25:37.000Z</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/Hammond-B3-Organ-Leslie-760-Speaker-/153027374672</t>
+    <t>windsurfer1979</t>
   </si>
   <si>
     <t>232768606640</t>
@@ -1118,6 +1349,9 @@
     <t>http://www.ebay.com/itm/C-2-Hammond-Organ-Smooth-Drawbars-Bench-JR-20-Amp-/232764642262</t>
   </si>
   <si>
+    <t>133</t>
+  </si>
+  <si>
     <t>173317287327</t>
   </si>
   <si>
@@ -1136,6 +1370,12 @@
     <t>http://www.ebay.com/itm/Hammond-C3-Organ-Pedals-Bench-and-Leslie-Speaker-B3-church-cabinet-/173317287327</t>
   </si>
   <si>
+    <t>julhu_53</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>292565286146</t>
   </si>
   <si>
@@ -1154,6 +1394,12 @@
     <t>http://www.ebay.com/itm/Hammond-C2-C3-Leslie-145-Bench-and-Pedals-1950-Aged-Cherry-/292565286146</t>
   </si>
   <si>
+    <t>donadam49</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
     <t>273201354256</t>
   </si>
   <si>
@@ -1172,6 +1418,12 @@
     <t>http://www.ebay.com/itm/HAMMOND-B-2-B-3-Leslie-Speaker-GREAT-Condition-local-church-/273201354256</t>
   </si>
   <si>
+    <t>jaz9231</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>292562346282</t>
   </si>
   <si>
@@ -1190,6 +1442,12 @@
     <t>http://www.ebay.com/itm/Original-and-Authentic-Hammond-C2-Organ-Leslie-Cabinet-/292562346282</t>
   </si>
   <si>
+    <t>313musicandmore</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>263676616322</t>
   </si>
   <si>
@@ -1223,6 +1481,12 @@
     <t>http://www.ebay.com/itm/Hammond-B3-Lelie-122-MINT-1964-Cherry-Wood-rebuilt-scanner-LOWERED-price-/323245822972</t>
   </si>
   <si>
+    <t>projectmusic</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>152977115101</t>
   </si>
   <si>
@@ -1241,6 +1505,12 @@
     <t>http://www.ebay.com/itm/VINTAGE-LESLIE-900-SPEAKER-CABINET-HAMMOND-B-3-C-3-ORGAN-100-WATT-AMPLIFIER-/152977115101</t>
   </si>
   <si>
+    <t>tws3</t>
+  </si>
+  <si>
+    <t>3015</t>
+  </si>
+  <si>
     <t>153005250163</t>
   </si>
   <si>
@@ -1262,6 +1532,9 @@
     <t>http://www.ebay.com/itm/Pristine-Hammond-B3-Organ-/153005250163</t>
   </si>
   <si>
+    <t>myhnbc13</t>
+  </si>
+  <si>
     <t>282938501842</t>
   </si>
   <si>
@@ -1280,6 +1553,12 @@
     <t>http://www.ebay.com/itm/Hammond-Organ-GV-C3-and-B3-but-chorus-instead-percussion-/282938501842</t>
   </si>
   <si>
+    <t>wado1942</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
     <t>232745557214</t>
   </si>
   <si>
@@ -1298,6 +1577,12 @@
     <t>http://www.ebay.com/itm/Vintage-HAMMOND-A-100-Organ-1959-B3-C3-/232745557214</t>
   </si>
   <si>
+    <t>kellykirschman</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>222950407716</t>
   </si>
   <si>
@@ -1316,6 +1601,12 @@
     <t>http://www.ebay.com/itm/Vintage-Korg-CX-3-CX3-Analog-Hammond-B3-C3-Organ-Modeling-Keyboard-/222950407716</t>
   </si>
   <si>
+    <t>keyshound</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>163007866440</t>
   </si>
   <si>
@@ -1334,6 +1625,12 @@
     <t>http://www.ebay.com/itm/Hammond-b3-organ-Leslie-900-Original-Bench-and-Pedals-NO-RESERVE-/163007866440</t>
   </si>
   <si>
+    <t>rbgiantsfan</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
     <t>253544612729</t>
   </si>
   <si>
@@ -1352,6 +1649,12 @@
     <t>http://www.ebay.com/itm/1963-Hammond-b3-Leslie-122-/253544612729</t>
   </si>
   <si>
+    <t>fonta_da</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>173278803737</t>
   </si>
   <si>
@@ -1364,6 +1667,9 @@
     <t>http://www.ebay.com/itm/Serviced-1964-Hammond-A100-Organ-Worldwide-shipping-B3-C3-etc-/173278803737</t>
   </si>
   <si>
+    <t>2097</t>
+  </si>
+  <si>
     <t>112854559813</t>
   </si>
   <si>
@@ -1382,6 +1688,15 @@
     <t>http://www.ebay.com/itm/Hammond-B3-Organ-extras-2-PR20-tone-cabinets-bench-pedals-Portland-/112854559813</t>
   </si>
   <si>
+    <t>micrental</t>
+  </si>
+  <si>
+    <t>9133</t>
+  </si>
+  <si>
+    <t>99.8</t>
+  </si>
+  <si>
     <t>132583538944</t>
   </si>
   <si>
@@ -1400,6 +1715,12 @@
     <t>http://www.ebay.com/itm/Hammond-B2-Organ-w-Leslie-speaker-kit-122-/132583538944</t>
   </si>
   <si>
+    <t>windfarer</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>202293364177</t>
   </si>
   <si>
@@ -1418,6 +1739,12 @@
     <t>http://www.ebay.com/itm/Vintage-HAMMOND-A-100-Organ-1965-B3-C3-/202293364177</t>
   </si>
   <si>
+    <t>pcoc9093</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
     <t>282922757320</t>
   </si>
   <si>
@@ -1436,6 +1763,12 @@
     <t>http://www.ebay.com/itm/1963-Hammond-B3-Organ-PR40-Tone-Cabinet-/282922757320</t>
   </si>
   <si>
+    <t>dbaker514</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
     <t>162995068664</t>
   </si>
   <si>
@@ -1454,6 +1787,12 @@
     <t>http://www.ebay.com/itm/hammond-organ-A-100-/162995068664</t>
   </si>
   <si>
+    <t>continential</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>263590114580</t>
   </si>
   <si>
@@ -1472,6 +1811,12 @@
     <t>http://www.ebay.com/itm/HAMMOND-B-2-/263590114580</t>
   </si>
   <si>
+    <t>home2tx</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
     <t>142434214876</t>
   </si>
   <si>
@@ -1490,6 +1835,12 @@
     <t>http://www.ebay.com/itm/Hammond-B3-organ-Early-60s-w-footpedals-bench-Studio-Speaker-and-Leslie-/142434214876</t>
   </si>
   <si>
+    <t>jdaia0ko3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>152750322593</t>
   </si>
   <si>
@@ -1508,6 +1859,9 @@
     <t>http://www.ebay.com/itm/Custom-Jan-Al-Road-Cases-Hammond-C-2-C-3-Organ-Great-Cond-Local-P-U-/152750322593</t>
   </si>
   <si>
+    <t>josh_hml</t>
+  </si>
+  <si>
     <t>232679846309</t>
   </si>
   <si>
@@ -1526,6 +1880,9 @@
     <t>http://www.ebay.com/itm/Hammond-C-3-Organ-and-Speaker-/232679846309</t>
   </si>
   <si>
+    <t>riroric_ix4gcz</t>
+  </si>
+  <si>
     <t>192497236016</t>
   </si>
   <si>
@@ -1544,6 +1901,9 @@
     <t>http://www.ebay.com/itm/1964-Hammond-B3-Leslie-1958-Hammond-B3-2-Leslies-/192497236016</t>
   </si>
   <si>
+    <t>y.ytht.sokaok6y</t>
+  </si>
+  <si>
     <t>352320245420</t>
   </si>
   <si>
@@ -1559,6 +1919,9 @@
     <t>http://www.ebay.com/itm/1957-Hammond-C3-Organ-Leslie-122A-Professionally-Restored-worldwide-shipping-/352320245420</t>
   </si>
   <si>
+    <t>2091</t>
+  </si>
+  <si>
     <t>282883634096</t>
   </si>
   <si>
@@ -1577,6 +1940,12 @@
     <t>http://www.ebay.com/itm/HAMMOND-A-100-A100-ORGAN-BENCH-BASS-PEDALS-LESLIE-147-B3-C3-/282883634096</t>
   </si>
   <si>
+    <t>reuse-lt</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>112889780204</t>
   </si>
   <si>
@@ -1595,6 +1964,12 @@
     <t>http://www.ebay.com/itm/Hammond-B3-Organ-w-leslie-21H-mint-condition-Beautiful-Dark-Walnut-Color-/112889780204</t>
   </si>
   <si>
+    <t>eazy0_1</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
     <t>263565381102</t>
   </si>
   <si>
@@ -1610,6 +1985,9 @@
     <t>http://www.ebay.com/itm/Hammond-C3-organ-two-Leslies-/263565381102</t>
   </si>
   <si>
+    <t>organtek</t>
+  </si>
+  <si>
     <t>202271036819</t>
   </si>
   <si>
@@ -1628,6 +2006,12 @@
     <t>http://www.ebay.com/itm/Hammond-B-3-Organ-122-Leslie-/202271036819</t>
   </si>
   <si>
+    <t>abckev1</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
     <t>263556157105</t>
   </si>
   <si>
@@ -1646,6 +2030,9 @@
     <t>http://www.ebay.com/itm/HAMMOND-A100-ORGAN-/263556157105</t>
   </si>
   <si>
+    <t>162</t>
+  </si>
+  <si>
     <t>282893476043</t>
   </si>
   <si>
@@ -1661,6 +2048,9 @@
     <t>http://www.ebay.com/itm/Vintage-HAMMOND-A-100-Organ-1965-B3-C3-/282893476043</t>
   </si>
   <si>
+    <t>laurclevelan-8</t>
+  </si>
+  <si>
     <t>192488661094</t>
   </si>
   <si>
@@ -1679,6 +2069,12 @@
     <t>http://www.ebay.com/itm/1964-Hammond-B3-Organ-PR40-Tone-Cabinet-/192488661094</t>
   </si>
   <si>
+    <t>maydaydrums</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
     <t>352311673148</t>
   </si>
   <si>
@@ -1692,6 +2088,9 @@
   </si>
   <si>
     <t>http://www.ebay.com/itm/1961-Hammond-A102-A100-Organ-Worldwide-shipping-B3-C3-etc-/352311673148</t>
+  </si>
+  <si>
+    <t>2085</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2048,7 +2447,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2094,4705 +2493,5502 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>2999.99</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N2" t="n">
         <v>98281</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
         <v>3800</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N3" t="n">
         <v>62801</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
         <v>3500</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N4" t="n">
         <v>62801</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
         <v>3400</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
         <v>1999</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="N6" t="n">
         <v>2702</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>1050</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="L7" t="n">
         <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="N7" t="n">
         <v>16875</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>70</v>
+      </c>
+      <c r="P7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
         <v>860</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="L8" t="n">
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N8" t="n">
         <v>94945</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
         <v>690</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F9" t="n">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="L9" t="n">
         <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N9" t="n">
         <v>43725</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>86</v>
+      </c>
+      <c r="P9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
         <v>2125</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="N10" t="n">
         <v>46555</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>94</v>
+      </c>
+      <c r="P10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
         <v>1395</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="N11" t="n">
         <v>92637</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>102</v>
+      </c>
+      <c r="P11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
         <v>749</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="L12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="N12" t="n">
         <v>43615</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>111</v>
+      </c>
+      <c r="P12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
         <v>2750</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="N13" t="n">
         <v>46074</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>119</v>
+      </c>
+      <c r="P13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
         <v>6900</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N14" t="n">
         <v>90807</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>128</v>
+      </c>
+      <c r="P14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
         <v>700</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L15" t="n">
         <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="N15" t="n">
         <v>32908</v>
       </c>
       <c r="O15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>137</v>
+      </c>
+      <c r="P15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>139</v>
+      </c>
+      <c r="R15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
         <v>4500</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
       </c>
       <c r="M16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="N16" t="n">
         <v>81006</v>
       </c>
       <c r="O16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>145</v>
+      </c>
+      <c r="P16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>147</v>
+      </c>
+      <c r="R16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>2799.99</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="N17" t="n">
         <v>92653</v>
       </c>
       <c r="O17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>153</v>
+      </c>
+      <c r="P17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>155</v>
+      </c>
+      <c r="R17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
         <v>5995</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="N18" t="n">
         <v>75240</v>
       </c>
       <c r="O18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>161</v>
+      </c>
+      <c r="P18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>163</v>
+      </c>
+      <c r="R18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
         <v>3000</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="N19" t="n">
         <v>46555</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>168</v>
+      </c>
+      <c r="P19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D20" t="n">
         <v>11500</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="N20" t="n">
         <v>37923</v>
       </c>
       <c r="O20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>175</v>
+      </c>
+      <c r="P20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
         <v>5299.99</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="L21" t="n">
         <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N21" t="n">
         <v>98281</v>
       </c>
       <c r="O21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>181</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>182</v>
+      </c>
+      <c r="R21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
         <v>3100</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="L22" t="n">
         <v>31</v>
       </c>
       <c r="M22" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="N22" t="n">
         <v>30534</v>
       </c>
       <c r="O22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>188</v>
+      </c>
+      <c r="P22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>190</v>
+      </c>
+      <c r="R22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
         <v>950</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="L23" t="n">
         <v>6</v>
       </c>
       <c r="M23" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N23" t="n">
         <v>94945</v>
       </c>
       <c r="O23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>194</v>
+      </c>
+      <c r="P23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
         <v>1932</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="L24" t="n">
         <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="N24" t="n">
         <v>54481</v>
       </c>
       <c r="O24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>200</v>
+      </c>
+      <c r="P24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>202</v>
+      </c>
+      <c r="R24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D25" t="n">
         <v>3115</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="K25" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="L25" t="n">
         <v>22</v>
       </c>
       <c r="M25" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="N25" t="n">
         <v>67277</v>
       </c>
       <c r="O25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P25" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>211</v>
+      </c>
+      <c r="R25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
         <v>5995</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="N26" t="n">
         <v>75240</v>
       </c>
       <c r="O26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>215</v>
+      </c>
+      <c r="P26" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>163</v>
+      </c>
+      <c r="R26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
         <v>1800</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F27" t="n">
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="L27" t="n">
         <v>25</v>
       </c>
       <c r="M27" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="N27" t="n">
         <v>16875</v>
       </c>
       <c r="O27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="P27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
         <v>8000</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="K28" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="N28" t="n">
         <v>32444</v>
       </c>
       <c r="O28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>226</v>
+      </c>
+      <c r="P28" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>228</v>
+      </c>
+      <c r="R28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
         <v>3795</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="L29" t="n">
         <v>2</v>
       </c>
       <c r="M29" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="N29" t="n">
         <v>89011</v>
       </c>
       <c r="O29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>234</v>
+      </c>
+      <c r="P29" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>236</v>
+      </c>
+      <c r="R29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
         <v>850</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J30" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="K30" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="L30" t="n">
         <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="N30" t="n">
         <v>32908</v>
       </c>
       <c r="O30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>240</v>
+      </c>
+      <c r="P30" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>139</v>
+      </c>
+      <c r="R30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
         <v>2999.99</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J31" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="L31" t="n">
         <v>2</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N31" t="n">
         <v>98281</v>
       </c>
       <c r="O31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>244</v>
+      </c>
+      <c r="P31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>245</v>
+      </c>
+      <c r="R31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
         <v>2999</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J32" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="L32" t="n">
         <v>7</v>
       </c>
       <c r="M32" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="N32" t="n">
         <v>2702</v>
       </c>
       <c r="O32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>250</v>
+      </c>
+      <c r="P32" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>251</v>
+      </c>
+      <c r="R32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
         <v>3500</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J33" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N33" t="n">
         <v>62801</v>
       </c>
       <c r="O33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>255</v>
+      </c>
+      <c r="P33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D34" t="n">
         <v>2695</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J34" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="L34" t="n">
         <v>11</v>
       </c>
       <c r="M34" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="N34" t="n">
         <v>90723</v>
       </c>
       <c r="O34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>261</v>
+      </c>
+      <c r="P34" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>263</v>
+      </c>
+      <c r="R34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
         <v>3000</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J35" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="K35" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="N35" t="n">
         <v>46555</v>
       </c>
       <c r="O35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>267</v>
+      </c>
+      <c r="P35" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>96</v>
+      </c>
+      <c r="R35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
         <v>3995</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J36" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="K36" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="L36" t="n">
         <v>3</v>
       </c>
       <c r="M36" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="N36" t="n">
         <v>89011</v>
       </c>
       <c r="O36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>271</v>
+      </c>
+      <c r="P36" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>236</v>
+      </c>
+      <c r="R36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="D37" t="n">
         <v>650</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J37" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="K37" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>278</v>
+      </c>
+      <c r="P37" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>280</v>
+      </c>
+      <c r="R37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
         <v>1495</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J38" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="K38" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="L38" t="n">
         <v>3</v>
       </c>
       <c r="M38" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="N38" t="n">
         <v>92637</v>
       </c>
       <c r="O38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>284</v>
+      </c>
+      <c r="P38" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>285</v>
+      </c>
+      <c r="R38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D39" t="n">
         <v>8000</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="L39" t="n">
         <v>45</v>
       </c>
       <c r="M39" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="N39" t="n">
         <v>91504</v>
       </c>
       <c r="O39" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>291</v>
+      </c>
+      <c r="P39" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>293</v>
+      </c>
+      <c r="R39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
         <v>2800</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="K40" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="N40" t="n">
         <v>46074</v>
       </c>
       <c r="O40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>297</v>
+      </c>
+      <c r="P40" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>121</v>
+      </c>
+      <c r="R40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
         <v>5499.99</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="K41" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="L41" t="n">
         <v>5</v>
       </c>
       <c r="M41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N41" t="n">
         <v>98281</v>
       </c>
       <c r="O41" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>301</v>
+      </c>
+      <c r="P41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>302</v>
+      </c>
+      <c r="R41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D42" t="n">
         <v>1090</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="N42" t="n">
         <v>34953</v>
       </c>
       <c r="O42" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>308</v>
+      </c>
+      <c r="P42" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>310</v>
+      </c>
+      <c r="R42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D43" t="n">
         <v>12500</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="K43" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="L43" t="n">
         <v>8</v>
       </c>
       <c r="M43" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="N43" t="n">
         <v>29461</v>
       </c>
       <c r="O43" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>316</v>
+      </c>
+      <c r="P43" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>318</v>
+      </c>
+      <c r="R43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
         <v>4500</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="K44" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="L44" t="n">
         <v>3</v>
       </c>
       <c r="M44" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="N44" t="n">
         <v>81006</v>
       </c>
       <c r="O44" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>322</v>
+      </c>
+      <c r="P44" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>147</v>
+      </c>
+      <c r="R44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
         <v>4999</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J45" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="K45" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="L45" t="n">
         <v>11</v>
       </c>
       <c r="M45" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="N45" t="n">
         <v>16148</v>
       </c>
       <c r="O45" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>328</v>
+      </c>
+      <c r="P45" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>330</v>
+      </c>
+      <c r="R45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D46" t="n">
         <v>1100</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J46" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="K46" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="L46" t="n">
         <v>6</v>
       </c>
       <c r="M46" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N46" t="n">
         <v>94945</v>
       </c>
       <c r="O46" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>334</v>
+      </c>
+      <c r="P46" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>80</v>
+      </c>
+      <c r="R46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
         <v>4650</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J47" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="K47" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="N47" t="n">
         <v>89011</v>
       </c>
       <c r="O47" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>338</v>
+      </c>
+      <c r="P47" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>236</v>
+      </c>
+      <c r="R47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
         <v>2999.99</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="K48" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="L48" t="n">
         <v>5</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N48" t="n">
         <v>98281</v>
       </c>
       <c r="O48" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>342</v>
+      </c>
+      <c r="P48" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>343</v>
+      </c>
+      <c r="R48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
         <v>6299</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J49" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="K49" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="L49" t="n">
         <v>10</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N49" t="n">
         <v>98281</v>
       </c>
       <c r="O49" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>348</v>
+      </c>
+      <c r="P49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>343</v>
+      </c>
+      <c r="R49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>279</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
         <v>2500</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
       <c r="K50" t="s">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="L50" t="n">
         <v>4</v>
       </c>
       <c r="M50" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="N50" t="n">
         <v>10004</v>
       </c>
       <c r="O50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>354</v>
+      </c>
+      <c r="P50" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>356</v>
+      </c>
+      <c r="R50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
         <v>1995</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J51" t="s">
-        <v>286</v>
+        <v>358</v>
       </c>
       <c r="K51" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="N51" t="n">
         <v>92637</v>
       </c>
       <c r="O51" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>360</v>
+      </c>
+      <c r="P51" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>361</v>
+      </c>
+      <c r="R51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>289</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
         <v>3800</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J52" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="K52" t="s">
-        <v>291</v>
+        <v>364</v>
       </c>
       <c r="L52" t="n">
         <v>4</v>
       </c>
       <c r="M52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N52" t="n">
         <v>62801</v>
       </c>
       <c r="O52" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>365</v>
+      </c>
+      <c r="P52" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>293</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
         <v>3500</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J53" t="s">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="K53" t="s">
-        <v>295</v>
+        <v>368</v>
       </c>
       <c r="L53" t="n">
         <v>3</v>
       </c>
       <c r="M53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N53" t="n">
         <v>62801</v>
       </c>
       <c r="O53" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>369</v>
+      </c>
+      <c r="P53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>40</v>
+      </c>
+      <c r="R53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>297</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
+        <v>371</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
         <v>2200</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J54" t="s">
-        <v>299</v>
+        <v>372</v>
       </c>
       <c r="K54" t="s">
-        <v>300</v>
+        <v>373</v>
       </c>
       <c r="L54" t="n">
         <v>11</v>
       </c>
       <c r="M54" t="s">
-        <v>301</v>
+        <v>374</v>
       </c>
       <c r="N54" t="n">
         <v>84092</v>
       </c>
       <c r="O54" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>375</v>
+      </c>
+      <c r="P54" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>377</v>
+      </c>
+      <c r="R54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>303</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D55" t="n">
         <v>11000</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J55" t="s">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="K55" t="s">
-        <v>306</v>
+        <v>381</v>
       </c>
       <c r="L55" t="n">
         <v>2</v>
       </c>
       <c r="M55" t="s">
-        <v>307</v>
+        <v>382</v>
       </c>
       <c r="N55" t="n">
         <v>75754</v>
       </c>
       <c r="O55" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>383</v>
+      </c>
+      <c r="P55" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>385</v>
+      </c>
+      <c r="R55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D56" t="n">
         <v>4650</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J56" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="K56" t="s">
-        <v>311</v>
+        <v>388</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="N56" t="n">
         <v>89011</v>
       </c>
       <c r="O56" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>389</v>
+      </c>
+      <c r="P56" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>390</v>
+      </c>
+      <c r="R56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="B57" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D57" t="n">
         <v>1150</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F57" t="n">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J57" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
       <c r="K57" t="s">
-        <v>315</v>
+        <v>393</v>
       </c>
       <c r="L57" t="n">
         <v>26</v>
       </c>
       <c r="M57" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="N57" t="n">
         <v>34953</v>
       </c>
       <c r="O57" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>394</v>
+      </c>
+      <c r="P57" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>310</v>
+      </c>
+      <c r="R57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D58" t="n">
         <v>5499.99</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J58" t="s">
-        <v>318</v>
+        <v>396</v>
       </c>
       <c r="K58" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="L58" t="n">
         <v>5</v>
       </c>
       <c r="M58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N58" t="n">
         <v>98281</v>
       </c>
       <c r="O58" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>398</v>
+      </c>
+      <c r="P58" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>399</v>
+      </c>
+      <c r="R58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
         <v>6299</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J59" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="K59" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="L59" t="n">
         <v>3</v>
       </c>
       <c r="M59" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N59" t="n">
         <v>98281</v>
       </c>
       <c r="O59" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>403</v>
+      </c>
+      <c r="P59" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>404</v>
+      </c>
+      <c r="R59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
         <v>3250</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J60" t="s">
-        <v>326</v>
+        <v>406</v>
       </c>
       <c r="K60" t="s">
-        <v>327</v>
+        <v>407</v>
       </c>
       <c r="L60" t="n">
         <v>2</v>
       </c>
       <c r="M60" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N60" t="n">
         <v>98281</v>
       </c>
       <c r="O60" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>408</v>
+      </c>
+      <c r="P60" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>404</v>
+      </c>
+      <c r="R60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="B61" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D61" t="n">
         <v>1500</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H61" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J61" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="K61" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="L61" t="n">
         <v>32</v>
       </c>
       <c r="M61" t="s">
-        <v>333</v>
+        <v>413</v>
       </c>
       <c r="N61" t="n">
         <v>8530</v>
       </c>
       <c r="O61" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>414</v>
+      </c>
+      <c r="P61" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>416</v>
+      </c>
+      <c r="R61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>335</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D62" t="n">
         <v>2200</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J62" t="s">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="K62" t="s">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="L62" t="n">
         <v>8</v>
       </c>
       <c r="M62" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="N62" t="n">
         <v>91311</v>
       </c>
       <c r="O62" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>422</v>
+      </c>
+      <c r="P62" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>424</v>
+      </c>
+      <c r="R62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>341</v>
+        <v>425</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D63" t="n">
         <v>4995</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J63" t="s">
-        <v>342</v>
+        <v>426</v>
       </c>
       <c r="K63" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="N63" t="n">
         <v>89011</v>
       </c>
       <c r="O63" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>428</v>
+      </c>
+      <c r="P63" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>390</v>
+      </c>
+      <c r="R63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>345</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s">
-        <v>346</v>
+        <v>430</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D64" t="n">
         <v>500</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H64" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J64" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="K64" t="s">
-        <v>348</v>
+        <v>432</v>
       </c>
       <c r="L64" t="n">
         <v>5</v>
       </c>
       <c r="M64" t="s">
-        <v>349</v>
+        <v>433</v>
       </c>
       <c r="N64" t="n">
         <v>48910</v>
       </c>
       <c r="O64" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>434</v>
+      </c>
+      <c r="P64" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>72</v>
+      </c>
+      <c r="R64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>351</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
-        <v>1995</v>
+        <v>2500</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J65" t="s">
-        <v>352</v>
+        <v>437</v>
       </c>
       <c r="K65" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="L65" t="n">
+        <v>10</v>
+      </c>
+      <c r="M65" t="s">
+        <v>374</v>
+      </c>
+      <c r="N65" t="n">
+        <v>84092</v>
+      </c>
+      <c r="O65" t="s">
+        <v>439</v>
+      </c>
+      <c r="P65" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>377</v>
+      </c>
+      <c r="R65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" t="s">
+        <v>440</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="n">
+        <v>510</v>
+      </c>
+      <c r="E66" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" t="n">
         <v>6</v>
       </c>
-      <c r="M65" t="s">
-        <v>80</v>
-      </c>
-      <c r="N65" t="n">
-        <v>92637</v>
-      </c>
-      <c r="O65" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" t="s">
-        <v>355</v>
-      </c>
-      <c r="B66" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4995</v>
-      </c>
-      <c r="E66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J66" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
       <c r="K66" t="s">
-        <v>357</v>
+        <v>442</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M66" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="N66" t="n">
-        <v>89011</v>
+        <v>43725</v>
       </c>
       <c r="O66" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>443</v>
+      </c>
+      <c r="P66" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>444</v>
+      </c>
+      <c r="R66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="B67" t="s">
-        <v>298</v>
+        <v>446</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D67" t="n">
+        <v>2497</v>
+      </c>
+      <c r="E67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" t="s">
+        <v>447</v>
+      </c>
+      <c r="K67" t="s">
+        <v>448</v>
+      </c>
+      <c r="L67" t="n">
+        <v>8</v>
+      </c>
+      <c r="M67" t="s">
+        <v>449</v>
+      </c>
+      <c r="N67" t="n">
+        <v>15235</v>
+      </c>
+      <c r="O67" t="s">
+        <v>450</v>
+      </c>
+      <c r="P67" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>452</v>
+      </c>
+      <c r="R67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" t="s">
+        <v>453</v>
+      </c>
+      <c r="B68" t="s">
+        <v>454</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E68" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>48</v>
+      </c>
+      <c r="H68" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" t="s">
+        <v>455</v>
+      </c>
+      <c r="K68" t="s">
+        <v>456</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4</v>
+      </c>
+      <c r="M68" t="s">
+        <v>457</v>
+      </c>
+      <c r="N68" t="n">
+        <v>8873</v>
+      </c>
+      <c r="O68" t="s">
+        <v>458</v>
+      </c>
+      <c r="P68" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>460</v>
+      </c>
+      <c r="R68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" t="s">
+        <v>461</v>
+      </c>
+      <c r="B69" t="s">
+        <v>462</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="n">
         <v>2500</v>
       </c>
-      <c r="E67" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" t="s">
-        <v>360</v>
-      </c>
-      <c r="K67" t="s">
-        <v>361</v>
-      </c>
-      <c r="L67" t="n">
-        <v>10</v>
-      </c>
-      <c r="M67" t="s">
-        <v>301</v>
-      </c>
-      <c r="N67" t="n">
-        <v>84092</v>
-      </c>
-      <c r="O67" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" t="s">
-        <v>363</v>
-      </c>
-      <c r="B68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" t="n">
-        <v>510</v>
-      </c>
-      <c r="E68" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" t="n">
-        <v>6</v>
-      </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J68" t="s">
-        <v>364</v>
-      </c>
-      <c r="K68" t="s">
-        <v>365</v>
-      </c>
-      <c r="L68" t="n">
-        <v>15</v>
-      </c>
-      <c r="M68" t="s">
-        <v>68</v>
-      </c>
-      <c r="N68" t="n">
-        <v>43725</v>
-      </c>
-      <c r="O68" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" t="s">
-        <v>367</v>
-      </c>
-      <c r="B69" t="s">
-        <v>368</v>
-      </c>
-      <c r="C69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2497</v>
-      </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J69" t="s">
-        <v>369</v>
+        <v>463</v>
       </c>
       <c r="K69" t="s">
-        <v>370</v>
+        <v>464</v>
       </c>
       <c r="L69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M69" t="s">
-        <v>371</v>
+        <v>465</v>
       </c>
       <c r="N69" t="n">
-        <v>15235</v>
+        <v>93021</v>
       </c>
       <c r="O69" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>466</v>
+      </c>
+      <c r="P69" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>468</v>
+      </c>
+      <c r="R69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>373</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s">
-        <v>374</v>
+        <v>470</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I70" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J70" t="s">
-        <v>375</v>
+        <v>471</v>
       </c>
       <c r="K70" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M70" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="N70" t="n">
-        <v>8873</v>
+        <v>48081</v>
       </c>
       <c r="O70" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>474</v>
+      </c>
+      <c r="P70" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>476</v>
+      </c>
+      <c r="R70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>379</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s">
-        <v>380</v>
+        <v>478</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D71" t="n">
         <v>2500</v>
       </c>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" t="s">
+        <v>479</v>
+      </c>
+      <c r="K71" t="s">
+        <v>480</v>
+      </c>
+      <c r="L71" t="n">
+        <v>10</v>
+      </c>
+      <c r="M71" t="s">
+        <v>110</v>
+      </c>
+      <c r="N71" t="n">
+        <v>43615</v>
+      </c>
+      <c r="O71" t="s">
+        <v>481</v>
+      </c>
+      <c r="P71" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>113</v>
+      </c>
+      <c r="R71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" t="s">
+        <v>482</v>
+      </c>
+      <c r="B72" t="s">
+        <v>483</v>
+      </c>
+      <c r="C72" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E72" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>48</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" t="s">
+        <v>484</v>
+      </c>
+      <c r="K72" t="s">
+        <v>485</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="s">
+        <v>486</v>
+      </c>
+      <c r="N72" t="n">
+        <v>18064</v>
+      </c>
+      <c r="O72" t="s">
+        <v>487</v>
+      </c>
+      <c r="P72" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>489</v>
+      </c>
+      <c r="R72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" t="s">
+        <v>490</v>
+      </c>
+      <c r="B73" t="s">
+        <v>491</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="n">
+        <v>800</v>
+      </c>
+      <c r="E73" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" t="s">
+        <v>492</v>
+      </c>
+      <c r="K73" t="s">
+        <v>493</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4</v>
+      </c>
+      <c r="M73" t="s">
+        <v>494</v>
+      </c>
+      <c r="N73" t="n">
+        <v>32223</v>
+      </c>
+      <c r="O73" t="s">
+        <v>495</v>
+      </c>
+      <c r="P73" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>497</v>
+      </c>
+      <c r="R73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" t="s">
+        <v>498</v>
+      </c>
+      <c r="B74" t="s">
+        <v>499</v>
+      </c>
+      <c r="C74" t="s">
+        <v>500</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3850</v>
+      </c>
+      <c r="E74" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" t="n">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" t="s">
+        <v>501</v>
+      </c>
+      <c r="K74" t="s">
+        <v>502</v>
+      </c>
+      <c r="L74" t="n">
+        <v>26</v>
+      </c>
+      <c r="M74" t="s">
+        <v>503</v>
+      </c>
+      <c r="N74" t="n">
+        <v>19122</v>
+      </c>
+      <c r="O74" t="s">
+        <v>504</v>
+      </c>
+      <c r="P74" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>377</v>
+      </c>
+      <c r="R74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>506</v>
+      </c>
+      <c r="B75" t="s">
+        <v>507</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="n">
+        <v>500</v>
+      </c>
+      <c r="E75" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" t="n">
         <v>1</v>
       </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" t="s">
-        <v>381</v>
-      </c>
-      <c r="K71" t="s">
-        <v>382</v>
-      </c>
-      <c r="L71" t="n">
-        <v>9</v>
-      </c>
-      <c r="M71" t="s">
-        <v>383</v>
-      </c>
-      <c r="N71" t="n">
-        <v>93021</v>
-      </c>
-      <c r="O71" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" t="s">
-        <v>385</v>
-      </c>
-      <c r="B72" t="s">
-        <v>386</v>
-      </c>
-      <c r="C72" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E72" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>40</v>
-      </c>
-      <c r="H72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s">
-        <v>21</v>
-      </c>
-      <c r="J72" t="s">
-        <v>387</v>
-      </c>
-      <c r="K72" t="s">
-        <v>388</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2</v>
-      </c>
-      <c r="M72" t="s">
-        <v>389</v>
-      </c>
-      <c r="N72" t="n">
-        <v>48081</v>
-      </c>
-      <c r="O72" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" t="s">
-        <v>391</v>
-      </c>
-      <c r="B73" t="s">
-        <v>392</v>
-      </c>
-      <c r="C73" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E73" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>40</v>
-      </c>
-      <c r="H73" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" t="s">
-        <v>393</v>
-      </c>
-      <c r="K73" t="s">
-        <v>394</v>
-      </c>
-      <c r="L73" t="n">
-        <v>10</v>
-      </c>
-      <c r="M73" t="s">
-        <v>87</v>
-      </c>
-      <c r="N73" t="n">
-        <v>43615</v>
-      </c>
-      <c r="O73" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" t="s">
-        <v>396</v>
-      </c>
-      <c r="B74" t="s">
-        <v>397</v>
-      </c>
-      <c r="C74" t="s">
-        <v>131</v>
-      </c>
-      <c r="D74" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E74" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>40</v>
-      </c>
-      <c r="H74" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" t="s">
-        <v>21</v>
-      </c>
-      <c r="J74" t="s">
-        <v>398</v>
-      </c>
-      <c r="K74" t="s">
-        <v>399</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3</v>
-      </c>
-      <c r="M74" t="s">
-        <v>400</v>
-      </c>
-      <c r="N74" t="n">
-        <v>18064</v>
-      </c>
-      <c r="O74" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" t="s">
-        <v>402</v>
-      </c>
-      <c r="B75" t="s">
-        <v>403</v>
-      </c>
-      <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" t="n">
-        <v>800</v>
-      </c>
-      <c r="E75" t="s">
-        <v>47</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H75" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J75" t="s">
-        <v>404</v>
+        <v>508</v>
       </c>
       <c r="K75" t="s">
-        <v>405</v>
+        <v>509</v>
       </c>
       <c r="L75" t="n">
         <v>4</v>
       </c>
       <c r="M75" t="s">
-        <v>406</v>
+        <v>510</v>
       </c>
       <c r="N75" t="n">
-        <v>32223</v>
+        <v>83704</v>
       </c>
       <c r="O75" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>511</v>
+      </c>
+      <c r="P75" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>513</v>
+      </c>
+      <c r="R75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>408</v>
+        <v>514</v>
       </c>
       <c r="B76" t="s">
-        <v>409</v>
+        <v>515</v>
       </c>
       <c r="C76" t="s">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>3850</v>
+        <v>841</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F76" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" t="s">
+        <v>516</v>
+      </c>
+      <c r="K76" t="s">
+        <v>517</v>
+      </c>
+      <c r="L76" t="n">
+        <v>16</v>
+      </c>
+      <c r="M76" t="s">
+        <v>518</v>
+      </c>
+      <c r="N76" t="n">
+        <v>89129</v>
+      </c>
+      <c r="O76" t="s">
+        <v>519</v>
+      </c>
+      <c r="P76" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>521</v>
+      </c>
+      <c r="R76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" t="s">
+        <v>522</v>
+      </c>
+      <c r="B77" t="s">
+        <v>523</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="n">
+        <v>550</v>
+      </c>
+      <c r="E77" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>48</v>
+      </c>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" t="s">
+        <v>524</v>
+      </c>
+      <c r="K77" t="s">
+        <v>525</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="s">
+        <v>526</v>
+      </c>
+      <c r="N77" t="n">
+        <v>94610</v>
+      </c>
+      <c r="O77" t="s">
+        <v>527</v>
+      </c>
+      <c r="P77" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>529</v>
+      </c>
+      <c r="R77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" t="s">
+        <v>530</v>
+      </c>
+      <c r="B78" t="s">
+        <v>531</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2136</v>
+      </c>
+      <c r="E78" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" t="s">
+        <v>532</v>
+      </c>
+      <c r="K78" t="s">
+        <v>533</v>
+      </c>
+      <c r="L78" t="n">
+        <v>26</v>
+      </c>
+      <c r="M78" t="s">
+        <v>534</v>
+      </c>
+      <c r="N78" t="n">
+        <v>92679</v>
+      </c>
+      <c r="O78" t="s">
+        <v>535</v>
+      </c>
+      <c r="P78" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>537</v>
+      </c>
+      <c r="R78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" t="s">
+        <v>538</v>
+      </c>
+      <c r="B79" t="s">
+        <v>539</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" t="s">
+        <v>540</v>
+      </c>
+      <c r="K79" t="s">
+        <v>541</v>
+      </c>
+      <c r="L79" t="n">
+        <v>17</v>
+      </c>
+      <c r="M79" t="s">
+        <v>542</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6084</v>
+      </c>
+      <c r="O79" t="s">
+        <v>543</v>
+      </c>
+      <c r="P79" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>545</v>
+      </c>
+      <c r="R79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" t="s">
+        <v>546</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3250</v>
+      </c>
+      <c r="E80" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" t="s">
+        <v>547</v>
+      </c>
+      <c r="K80" t="s">
+        <v>548</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4</v>
+      </c>
+      <c r="M80" t="s">
         <v>27</v>
       </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" t="s">
-        <v>411</v>
-      </c>
-      <c r="K76" t="s">
-        <v>412</v>
-      </c>
-      <c r="L76" t="n">
-        <v>26</v>
-      </c>
-      <c r="M76" t="s">
-        <v>413</v>
-      </c>
-      <c r="N76" t="n">
-        <v>19122</v>
-      </c>
-      <c r="O76" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" t="s">
-        <v>415</v>
-      </c>
-      <c r="B77" t="s">
-        <v>416</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="N80" t="n">
+        <v>98281</v>
+      </c>
+      <c r="O80" t="s">
+        <v>549</v>
+      </c>
+      <c r="P80" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>550</v>
+      </c>
+      <c r="R80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" t="s">
+        <v>551</v>
+      </c>
+      <c r="B81" t="s">
+        <v>552</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2225</v>
+      </c>
+      <c r="E81" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" t="s">
+        <v>553</v>
+      </c>
+      <c r="K81" t="s">
+        <v>554</v>
+      </c>
+      <c r="L81" t="n">
+        <v>22</v>
+      </c>
+      <c r="M81" t="s">
+        <v>555</v>
+      </c>
+      <c r="N81" t="n">
+        <v>97206</v>
+      </c>
+      <c r="O81" t="s">
+        <v>556</v>
+      </c>
+      <c r="P81" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>558</v>
+      </c>
+      <c r="R81" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" t="s">
+        <v>560</v>
+      </c>
+      <c r="B82" t="s">
+        <v>561</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" t="s">
+        <v>562</v>
+      </c>
+      <c r="K82" t="s">
+        <v>563</v>
+      </c>
+      <c r="L82" t="n">
+        <v>7</v>
+      </c>
+      <c r="M82" t="s">
+        <v>564</v>
+      </c>
+      <c r="N82" t="n">
+        <v>8609</v>
+      </c>
+      <c r="O82" t="s">
+        <v>565</v>
+      </c>
+      <c r="P82" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>567</v>
+      </c>
+      <c r="R82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" t="s">
+        <v>568</v>
+      </c>
+      <c r="B83" t="s">
+        <v>569</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E83" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>48</v>
+      </c>
+      <c r="H83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" t="s">
+        <v>570</v>
+      </c>
+      <c r="K83" t="s">
+        <v>571</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="s">
+        <v>572</v>
+      </c>
+      <c r="N83" t="n">
+        <v>84065</v>
+      </c>
+      <c r="O83" t="s">
+        <v>573</v>
+      </c>
+      <c r="P83" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>575</v>
+      </c>
+      <c r="R83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" t="s">
+        <v>576</v>
+      </c>
+      <c r="B84" t="s">
+        <v>577</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4250</v>
+      </c>
+      <c r="E84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F84" t="n">
+        <v>33</v>
+      </c>
+      <c r="G84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" t="s">
+        <v>578</v>
+      </c>
+      <c r="K84" t="s">
+        <v>579</v>
+      </c>
+      <c r="L84" t="n">
+        <v>49</v>
+      </c>
+      <c r="M84" t="s">
+        <v>580</v>
+      </c>
+      <c r="N84" t="n">
+        <v>44730</v>
+      </c>
+      <c r="O84" t="s">
+        <v>581</v>
+      </c>
+      <c r="P84" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>583</v>
+      </c>
+      <c r="R84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" t="s">
+        <v>584</v>
+      </c>
+      <c r="B85" t="s">
+        <v>585</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1201</v>
+      </c>
+      <c r="E85" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" t="s">
+        <v>586</v>
+      </c>
+      <c r="K85" t="s">
+        <v>587</v>
+      </c>
+      <c r="L85" t="n">
+        <v>29</v>
+      </c>
+      <c r="M85" t="s">
+        <v>588</v>
+      </c>
+      <c r="N85" t="n">
+        <v>46158</v>
+      </c>
+      <c r="O85" t="s">
+        <v>589</v>
+      </c>
+      <c r="P85" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>591</v>
+      </c>
+      <c r="R85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" t="s">
+        <v>592</v>
+      </c>
+      <c r="B86" t="s">
+        <v>593</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1750</v>
+      </c>
+      <c r="E86" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>48</v>
+      </c>
+      <c r="H86" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" t="s">
+        <v>594</v>
+      </c>
+      <c r="K86" t="s">
+        <v>595</v>
+      </c>
+      <c r="L86" t="n">
+        <v>8</v>
+      </c>
+      <c r="M86" t="s">
+        <v>596</v>
+      </c>
+      <c r="N86" t="n">
+        <v>75070</v>
+      </c>
+      <c r="O86" t="s">
+        <v>597</v>
+      </c>
+      <c r="P86" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>599</v>
+      </c>
+      <c r="R86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" t="s">
+        <v>600</v>
+      </c>
+      <c r="B87" t="s">
+        <v>601</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6900</v>
+      </c>
+      <c r="E87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>48</v>
+      </c>
+      <c r="H87" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" t="s">
+        <v>602</v>
+      </c>
+      <c r="K87" t="s">
+        <v>603</v>
+      </c>
+      <c r="L87" t="n">
+        <v>25</v>
+      </c>
+      <c r="M87" t="s">
+        <v>604</v>
+      </c>
+      <c r="N87" t="n">
+        <v>90266</v>
+      </c>
+      <c r="O87" t="s">
+        <v>605</v>
+      </c>
+      <c r="P87" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>607</v>
+      </c>
+      <c r="R87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" t="s">
+        <v>608</v>
+      </c>
+      <c r="B88" t="s">
+        <v>609</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" t="n">
+        <v>600</v>
+      </c>
+      <c r="E88" t="s">
+        <v>58</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>48</v>
+      </c>
+      <c r="H88" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" t="s">
+        <v>610</v>
+      </c>
+      <c r="K88" t="s">
+        <v>611</v>
+      </c>
+      <c r="L88" t="n">
+        <v>10</v>
+      </c>
+      <c r="M88" t="s">
+        <v>612</v>
+      </c>
+      <c r="N88" t="n">
+        <v>76201</v>
+      </c>
+      <c r="O88" t="s">
+        <v>613</v>
+      </c>
+      <c r="P88" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>54</v>
+      </c>
+      <c r="R88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" t="s">
+        <v>615</v>
+      </c>
+      <c r="B89" t="s">
+        <v>616</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3800</v>
+      </c>
+      <c r="E89" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>48</v>
+      </c>
+      <c r="H89" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" t="s">
+        <v>617</v>
+      </c>
+      <c r="K89" t="s">
+        <v>618</v>
+      </c>
+      <c r="L89" t="n">
+        <v>6</v>
+      </c>
+      <c r="M89" t="s">
+        <v>619</v>
+      </c>
+      <c r="N89" t="n">
+        <v>33441</v>
+      </c>
+      <c r="O89" t="s">
+        <v>620</v>
+      </c>
+      <c r="P89" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>452</v>
+      </c>
+      <c r="R89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" t="s">
+        <v>622</v>
+      </c>
+      <c r="B90" t="s">
+        <v>623</v>
+      </c>
+      <c r="C90" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" t="s">
+        <v>624</v>
+      </c>
+      <c r="K90" t="s">
+        <v>625</v>
+      </c>
+      <c r="L90" t="n">
+        <v>12</v>
+      </c>
+      <c r="M90" t="s">
+        <v>626</v>
+      </c>
+      <c r="N90" t="n">
+        <v>55128</v>
+      </c>
+      <c r="O90" t="s">
+        <v>627</v>
+      </c>
+      <c r="P90" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>72</v>
+      </c>
+      <c r="R90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" t="s">
+        <v>629</v>
+      </c>
+      <c r="B91" t="s">
+        <v>630</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" t="s">
+        <v>631</v>
+      </c>
+      <c r="K91" t="s">
+        <v>632</v>
+      </c>
+      <c r="L91" t="n">
+        <v>4</v>
+      </c>
+      <c r="M91" t="s">
+        <v>27</v>
+      </c>
+      <c r="N91" t="n">
+        <v>98281</v>
+      </c>
+      <c r="O91" t="s">
+        <v>633</v>
+      </c>
+      <c r="P91" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>634</v>
+      </c>
+      <c r="R91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" t="s">
+        <v>635</v>
+      </c>
+      <c r="B92" t="s">
+        <v>636</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E92" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>48</v>
+      </c>
+      <c r="H92" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" t="s">
+        <v>24</v>
+      </c>
+      <c r="J92" t="s">
+        <v>637</v>
+      </c>
+      <c r="K92" t="s">
+        <v>638</v>
+      </c>
+      <c r="L92" t="n">
+        <v>20</v>
+      </c>
+      <c r="M92" t="s">
+        <v>639</v>
+      </c>
+      <c r="N92" t="n">
+        <v>23116</v>
+      </c>
+      <c r="O92" t="s">
+        <v>640</v>
+      </c>
+      <c r="P92" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>642</v>
+      </c>
+      <c r="R92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" t="s">
+        <v>643</v>
+      </c>
+      <c r="B93" t="s">
+        <v>644</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4300</v>
+      </c>
+      <c r="E93" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" t="s">
+        <v>24</v>
+      </c>
+      <c r="J93" t="s">
+        <v>645</v>
+      </c>
+      <c r="K93" t="s">
+        <v>646</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8</v>
+      </c>
+      <c r="M93" t="s">
+        <v>647</v>
+      </c>
+      <c r="N93" t="n">
+        <v>48084</v>
+      </c>
+      <c r="O93" t="s">
+        <v>648</v>
+      </c>
+      <c r="P93" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>650</v>
+      </c>
+      <c r="R93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" t="s">
+        <v>651</v>
+      </c>
+      <c r="B94" t="s">
+        <v>652</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2990</v>
+      </c>
+      <c r="E94" t="s">
+        <v>58</v>
+      </c>
+      <c r="F94" t="n">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94" t="s">
+        <v>653</v>
+      </c>
+      <c r="K94" t="s">
+        <v>654</v>
+      </c>
+      <c r="L94" t="n">
+        <v>30</v>
+      </c>
+      <c r="M94" t="s">
+        <v>174</v>
+      </c>
+      <c r="N94" t="n">
+        <v>37920</v>
+      </c>
+      <c r="O94" t="s">
+        <v>655</v>
+      </c>
+      <c r="P94" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>529</v>
+      </c>
+      <c r="R94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" t="s">
+        <v>657</v>
+      </c>
+      <c r="B95" t="s">
+        <v>658</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5990</v>
+      </c>
+      <c r="E95" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" t="s">
+        <v>24</v>
+      </c>
+      <c r="J95" t="s">
+        <v>659</v>
+      </c>
+      <c r="K95" t="s">
+        <v>660</v>
+      </c>
+      <c r="L95" t="n">
+        <v>4</v>
+      </c>
+      <c r="M95" t="s">
+        <v>661</v>
+      </c>
+      <c r="N95" t="n">
+        <v>33484</v>
+      </c>
+      <c r="O95" t="s">
+        <v>662</v>
+      </c>
+      <c r="P95" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>664</v>
+      </c>
+      <c r="R95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" t="s">
+        <v>665</v>
+      </c>
+      <c r="B96" t="s">
+        <v>666</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E96" t="s">
+        <v>58</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H96" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" t="s">
+        <v>24</v>
+      </c>
+      <c r="J96" t="s">
+        <v>667</v>
+      </c>
+      <c r="K96" t="s">
+        <v>668</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3</v>
+      </c>
+      <c r="M96" t="s">
+        <v>669</v>
+      </c>
+      <c r="N96" t="n">
+        <v>75081</v>
+      </c>
+      <c r="O96" t="s">
+        <v>670</v>
+      </c>
+      <c r="P96" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>671</v>
+      </c>
+      <c r="R96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" t="s">
+        <v>672</v>
+      </c>
+      <c r="B97" t="s">
+        <v>569</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1475</v>
+      </c>
+      <c r="E97" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97" t="s">
+        <v>24</v>
+      </c>
+      <c r="J97" t="s">
+        <v>673</v>
+      </c>
+      <c r="K97" t="s">
+        <v>674</v>
+      </c>
+      <c r="L97" t="n">
         <v>17</v>
       </c>
-      <c r="D77" t="n">
-        <v>500</v>
-      </c>
-      <c r="E77" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="s">
-        <v>28</v>
-      </c>
-      <c r="H77" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" t="s">
-        <v>21</v>
-      </c>
-      <c r="J77" t="s">
-        <v>417</v>
-      </c>
-      <c r="K77" t="s">
-        <v>418</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4</v>
-      </c>
-      <c r="M77" t="s">
-        <v>419</v>
-      </c>
-      <c r="N77" t="n">
-        <v>83704</v>
-      </c>
-      <c r="O77" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" t="s">
-        <v>421</v>
-      </c>
-      <c r="B78" t="s">
-        <v>422</v>
-      </c>
-      <c r="C78" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" t="n">
-        <v>841</v>
-      </c>
-      <c r="E78" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" t="n">
-        <v>5</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
-      <c r="H78" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" t="s">
-        <v>21</v>
-      </c>
-      <c r="J78" t="s">
-        <v>423</v>
-      </c>
-      <c r="K78" t="s">
-        <v>424</v>
-      </c>
-      <c r="L78" t="n">
-        <v>16</v>
-      </c>
-      <c r="M78" t="s">
-        <v>425</v>
-      </c>
-      <c r="N78" t="n">
-        <v>89129</v>
-      </c>
-      <c r="O78" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" t="s">
-        <v>427</v>
-      </c>
-      <c r="B79" t="s">
-        <v>428</v>
-      </c>
-      <c r="C79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" t="n">
-        <v>550</v>
-      </c>
-      <c r="E79" t="s">
-        <v>47</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" t="s">
-        <v>21</v>
-      </c>
-      <c r="J79" t="s">
-        <v>429</v>
-      </c>
-      <c r="K79" t="s">
-        <v>430</v>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="s">
-        <v>431</v>
-      </c>
-      <c r="N79" t="n">
-        <v>94610</v>
-      </c>
-      <c r="O79" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" t="s">
-        <v>433</v>
-      </c>
-      <c r="B80" t="s">
-        <v>434</v>
-      </c>
-      <c r="C80" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2136</v>
-      </c>
-      <c r="E80" t="s">
-        <v>47</v>
-      </c>
-      <c r="F80" t="n">
-        <v>9</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J80" t="s">
-        <v>435</v>
-      </c>
-      <c r="K80" t="s">
-        <v>436</v>
-      </c>
-      <c r="L80" t="n">
-        <v>26</v>
-      </c>
-      <c r="M80" t="s">
-        <v>437</v>
-      </c>
-      <c r="N80" t="n">
-        <v>92679</v>
-      </c>
-      <c r="O80" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" t="s">
-        <v>439</v>
-      </c>
-      <c r="B81" t="s">
-        <v>440</v>
-      </c>
-      <c r="C81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" t="n">
-        <v>5500</v>
-      </c>
-      <c r="E81" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s">
-        <v>40</v>
-      </c>
-      <c r="H81" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J81" t="s">
-        <v>441</v>
-      </c>
-      <c r="K81" t="s">
-        <v>442</v>
-      </c>
-      <c r="L81" t="n">
-        <v>17</v>
-      </c>
-      <c r="M81" t="s">
-        <v>443</v>
-      </c>
-      <c r="N81" t="n">
-        <v>6084</v>
-      </c>
-      <c r="O81" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" t="s">
-        <v>445</v>
-      </c>
-      <c r="B82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" t="n">
-        <v>3250</v>
-      </c>
-      <c r="E82" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" t="s">
-        <v>20</v>
-      </c>
-      <c r="I82" t="s">
-        <v>21</v>
-      </c>
-      <c r="J82" t="s">
-        <v>446</v>
-      </c>
-      <c r="K82" t="s">
-        <v>447</v>
-      </c>
-      <c r="L82" t="n">
-        <v>4</v>
-      </c>
-      <c r="M82" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" t="n">
+      <c r="M97" t="s">
+        <v>675</v>
+      </c>
+      <c r="N97" t="n">
+        <v>14850</v>
+      </c>
+      <c r="O97" t="s">
+        <v>676</v>
+      </c>
+      <c r="P97" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>452</v>
+      </c>
+      <c r="R97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" t="s">
+        <v>678</v>
+      </c>
+      <c r="B98" t="s">
+        <v>679</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E98" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>48</v>
+      </c>
+      <c r="H98" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" t="s">
+        <v>24</v>
+      </c>
+      <c r="J98" t="s">
+        <v>680</v>
+      </c>
+      <c r="K98" t="s">
+        <v>681</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7</v>
+      </c>
+      <c r="M98" t="s">
+        <v>682</v>
+      </c>
+      <c r="N98" t="n">
+        <v>43103</v>
+      </c>
+      <c r="O98" t="s">
+        <v>683</v>
+      </c>
+      <c r="P98" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>685</v>
+      </c>
+      <c r="R98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" t="s">
+        <v>686</v>
+      </c>
+      <c r="B99" t="s">
+        <v>687</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E99" t="s">
+        <v>58</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" t="s">
+        <v>24</v>
+      </c>
+      <c r="J99" t="s">
+        <v>688</v>
+      </c>
+      <c r="K99" t="s">
+        <v>689</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="s">
+        <v>27</v>
+      </c>
+      <c r="N99" t="n">
         <v>98281</v>
       </c>
-      <c r="O82" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" t="s">
-        <v>449</v>
-      </c>
-      <c r="B83" t="s">
-        <v>450</v>
-      </c>
-      <c r="C83" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2225</v>
-      </c>
-      <c r="E83" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" t="s">
-        <v>451</v>
-      </c>
-      <c r="K83" t="s">
-        <v>452</v>
-      </c>
-      <c r="L83" t="n">
-        <v>22</v>
-      </c>
-      <c r="M83" t="s">
-        <v>453</v>
-      </c>
-      <c r="N83" t="n">
-        <v>97206</v>
-      </c>
-      <c r="O83" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" t="s">
-        <v>455</v>
-      </c>
-      <c r="B84" t="s">
-        <v>456</v>
-      </c>
-      <c r="C84" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E84" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" t="s">
-        <v>21</v>
-      </c>
-      <c r="J84" t="s">
-        <v>457</v>
-      </c>
-      <c r="K84" t="s">
-        <v>458</v>
-      </c>
-      <c r="L84" t="n">
-        <v>7</v>
-      </c>
-      <c r="M84" t="s">
-        <v>459</v>
-      </c>
-      <c r="N84" t="n">
-        <v>8609</v>
-      </c>
-      <c r="O84" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" t="s">
-        <v>461</v>
-      </c>
-      <c r="B85" t="s">
-        <v>462</v>
-      </c>
-      <c r="C85" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E85" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="s">
-        <v>40</v>
-      </c>
-      <c r="H85" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" t="s">
-        <v>21</v>
-      </c>
-      <c r="J85" t="s">
-        <v>463</v>
-      </c>
-      <c r="K85" t="s">
-        <v>464</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2</v>
-      </c>
-      <c r="M85" t="s">
-        <v>465</v>
-      </c>
-      <c r="N85" t="n">
-        <v>84065</v>
-      </c>
-      <c r="O85" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" t="s">
-        <v>467</v>
-      </c>
-      <c r="B86" t="s">
-        <v>468</v>
-      </c>
-      <c r="C86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" t="n">
-        <v>4250</v>
-      </c>
-      <c r="E86" t="s">
-        <v>47</v>
-      </c>
-      <c r="F86" t="n">
-        <v>33</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" t="s">
-        <v>21</v>
-      </c>
-      <c r="I86" t="s">
-        <v>21</v>
-      </c>
-      <c r="J86" t="s">
-        <v>469</v>
-      </c>
-      <c r="K86" t="s">
-        <v>470</v>
-      </c>
-      <c r="L86" t="n">
-        <v>49</v>
-      </c>
-      <c r="M86" t="s">
-        <v>471</v>
-      </c>
-      <c r="N86" t="n">
-        <v>44730</v>
-      </c>
-      <c r="O86" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" t="s">
-        <v>473</v>
-      </c>
-      <c r="B87" t="s">
-        <v>474</v>
-      </c>
-      <c r="C87" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1201</v>
-      </c>
-      <c r="E87" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" t="n">
-        <v>10</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
-      <c r="H87" t="s">
-        <v>21</v>
-      </c>
-      <c r="I87" t="s">
-        <v>21</v>
-      </c>
-      <c r="J87" t="s">
-        <v>475</v>
-      </c>
-      <c r="K87" t="s">
-        <v>476</v>
-      </c>
-      <c r="L87" t="n">
+      <c r="O99" t="s">
+        <v>690</v>
+      </c>
+      <c r="P99" t="s">
         <v>29</v>
       </c>
-      <c r="M87" t="s">
-        <v>477</v>
-      </c>
-      <c r="N87" t="n">
-        <v>46158</v>
-      </c>
-      <c r="O87" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" t="s">
-        <v>479</v>
-      </c>
-      <c r="B88" t="s">
-        <v>480</v>
-      </c>
-      <c r="C88" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1750</v>
-      </c>
-      <c r="E88" t="s">
-        <v>47</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s">
-        <v>20</v>
-      </c>
-      <c r="I88" t="s">
-        <v>21</v>
-      </c>
-      <c r="J88" t="s">
-        <v>481</v>
-      </c>
-      <c r="K88" t="s">
-        <v>482</v>
-      </c>
-      <c r="L88" t="n">
-        <v>8</v>
-      </c>
-      <c r="M88" t="s">
-        <v>483</v>
-      </c>
-      <c r="N88" t="n">
-        <v>75070</v>
-      </c>
-      <c r="O88" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" t="s">
-        <v>485</v>
-      </c>
-      <c r="B89" t="s">
-        <v>486</v>
-      </c>
-      <c r="C89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" t="n">
-        <v>6900</v>
-      </c>
-      <c r="E89" t="s">
-        <v>47</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
-        <v>40</v>
-      </c>
-      <c r="H89" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89" t="s">
-        <v>21</v>
-      </c>
-      <c r="J89" t="s">
-        <v>487</v>
-      </c>
-      <c r="K89" t="s">
-        <v>488</v>
-      </c>
-      <c r="L89" t="n">
-        <v>25</v>
-      </c>
-      <c r="M89" t="s">
-        <v>489</v>
-      </c>
-      <c r="N89" t="n">
-        <v>90266</v>
-      </c>
-      <c r="O89" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" t="s">
-        <v>491</v>
-      </c>
-      <c r="B90" t="s">
-        <v>492</v>
-      </c>
-      <c r="C90" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" t="n">
-        <v>600</v>
-      </c>
-      <c r="E90" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="s">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s">
-        <v>20</v>
-      </c>
-      <c r="I90" t="s">
-        <v>21</v>
-      </c>
-      <c r="J90" t="s">
-        <v>493</v>
-      </c>
-      <c r="K90" t="s">
-        <v>494</v>
-      </c>
-      <c r="L90" t="n">
-        <v>10</v>
-      </c>
-      <c r="M90" t="s">
-        <v>495</v>
-      </c>
-      <c r="N90" t="n">
-        <v>76201</v>
-      </c>
-      <c r="O90" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" t="s">
-        <v>497</v>
-      </c>
-      <c r="B91" t="s">
-        <v>498</v>
-      </c>
-      <c r="C91" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" t="n">
-        <v>3800</v>
-      </c>
-      <c r="E91" t="s">
-        <v>47</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="s">
-        <v>40</v>
-      </c>
-      <c r="H91" t="s">
-        <v>20</v>
-      </c>
-      <c r="I91" t="s">
-        <v>21</v>
-      </c>
-      <c r="J91" t="s">
-        <v>499</v>
-      </c>
-      <c r="K91" t="s">
-        <v>500</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6</v>
-      </c>
-      <c r="M91" t="s">
-        <v>501</v>
-      </c>
-      <c r="N91" t="n">
-        <v>33441</v>
-      </c>
-      <c r="O91" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" t="s">
-        <v>503</v>
-      </c>
-      <c r="B92" t="s">
-        <v>504</v>
-      </c>
-      <c r="C92" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E92" t="s">
-        <v>47</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s">
-        <v>21</v>
-      </c>
-      <c r="I92" t="s">
-        <v>21</v>
-      </c>
-      <c r="J92" t="s">
-        <v>505</v>
-      </c>
-      <c r="K92" t="s">
-        <v>506</v>
-      </c>
-      <c r="L92" t="n">
-        <v>12</v>
-      </c>
-      <c r="M92" t="s">
-        <v>507</v>
-      </c>
-      <c r="N92" t="n">
-        <v>55128</v>
-      </c>
-      <c r="O92" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="A93" t="s">
-        <v>509</v>
-      </c>
-      <c r="B93" t="s">
-        <v>510</v>
-      </c>
-      <c r="C93" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E93" t="s">
-        <v>47</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="s">
-        <v>28</v>
-      </c>
-      <c r="H93" t="s">
-        <v>21</v>
-      </c>
-      <c r="I93" t="s">
-        <v>21</v>
-      </c>
-      <c r="J93" t="s">
-        <v>511</v>
-      </c>
-      <c r="K93" t="s">
-        <v>512</v>
-      </c>
-      <c r="L93" t="n">
-        <v>4</v>
-      </c>
-      <c r="M93" t="s">
-        <v>24</v>
-      </c>
-      <c r="N93" t="n">
-        <v>98281</v>
-      </c>
-      <c r="O93" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" t="s">
-        <v>514</v>
-      </c>
-      <c r="B94" t="s">
-        <v>515</v>
-      </c>
-      <c r="C94" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E94" t="s">
-        <v>47</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="s">
-        <v>40</v>
-      </c>
-      <c r="H94" t="s">
-        <v>20</v>
-      </c>
-      <c r="I94" t="s">
-        <v>21</v>
-      </c>
-      <c r="J94" t="s">
-        <v>516</v>
-      </c>
-      <c r="K94" t="s">
-        <v>517</v>
-      </c>
-      <c r="L94" t="n">
-        <v>20</v>
-      </c>
-      <c r="M94" t="s">
-        <v>518</v>
-      </c>
-      <c r="N94" t="n">
-        <v>23116</v>
-      </c>
-      <c r="O94" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="A95" t="s">
-        <v>520</v>
-      </c>
-      <c r="B95" t="s">
-        <v>521</v>
-      </c>
-      <c r="C95" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" t="n">
-        <v>4300</v>
-      </c>
-      <c r="E95" t="s">
-        <v>47</v>
-      </c>
-      <c r="F95" t="n">
-        <v>4</v>
-      </c>
-      <c r="G95" t="s">
-        <v>28</v>
-      </c>
-      <c r="H95" t="s">
-        <v>21</v>
-      </c>
-      <c r="I95" t="s">
-        <v>21</v>
-      </c>
-      <c r="J95" t="s">
-        <v>522</v>
-      </c>
-      <c r="K95" t="s">
-        <v>523</v>
-      </c>
-      <c r="L95" t="n">
-        <v>8</v>
-      </c>
-      <c r="M95" t="s">
-        <v>524</v>
-      </c>
-      <c r="N95" t="n">
-        <v>48084</v>
-      </c>
-      <c r="O95" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" t="s">
-        <v>526</v>
-      </c>
-      <c r="B96" t="s">
-        <v>527</v>
-      </c>
-      <c r="C96" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" t="n">
-        <v>2990</v>
-      </c>
-      <c r="E96" t="s">
-        <v>47</v>
-      </c>
-      <c r="F96" t="n">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" t="s">
-        <v>21</v>
-      </c>
-      <c r="I96" t="s">
-        <v>21</v>
-      </c>
-      <c r="J96" t="s">
-        <v>528</v>
-      </c>
-      <c r="K96" t="s">
-        <v>529</v>
-      </c>
-      <c r="L96" t="n">
-        <v>30</v>
-      </c>
-      <c r="M96" t="s">
-        <v>134</v>
-      </c>
-      <c r="N96" t="n">
-        <v>37920</v>
-      </c>
-      <c r="O96" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" t="s">
-        <v>531</v>
-      </c>
-      <c r="B97" t="s">
-        <v>532</v>
-      </c>
-      <c r="C97" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" t="n">
-        <v>5990</v>
-      </c>
-      <c r="E97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="s">
-        <v>40</v>
-      </c>
-      <c r="H97" t="s">
-        <v>21</v>
-      </c>
-      <c r="I97" t="s">
-        <v>21</v>
-      </c>
-      <c r="J97" t="s">
-        <v>533</v>
-      </c>
-      <c r="K97" t="s">
-        <v>534</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4</v>
-      </c>
-      <c r="M97" t="s">
-        <v>535</v>
-      </c>
-      <c r="N97" t="n">
-        <v>33484</v>
-      </c>
-      <c r="O97" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" t="s">
-        <v>537</v>
-      </c>
-      <c r="B98" t="s">
-        <v>538</v>
-      </c>
-      <c r="C98" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1900</v>
-      </c>
-      <c r="E98" t="s">
-        <v>47</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="s">
-        <v>40</v>
-      </c>
-      <c r="H98" t="s">
-        <v>20</v>
-      </c>
-      <c r="I98" t="s">
-        <v>21</v>
-      </c>
-      <c r="J98" t="s">
-        <v>539</v>
-      </c>
-      <c r="K98" t="s">
-        <v>540</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3</v>
-      </c>
-      <c r="M98" t="s">
-        <v>541</v>
-      </c>
-      <c r="N98" t="n">
-        <v>75081</v>
-      </c>
-      <c r="O98" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" t="s">
-        <v>543</v>
-      </c>
-      <c r="B99" t="s">
-        <v>462</v>
-      </c>
-      <c r="C99" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1475</v>
-      </c>
-      <c r="E99" t="s">
-        <v>47</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2</v>
-      </c>
-      <c r="G99" t="s">
-        <v>28</v>
-      </c>
-      <c r="H99" t="s">
-        <v>21</v>
-      </c>
-      <c r="I99" t="s">
-        <v>21</v>
-      </c>
-      <c r="J99" t="s">
-        <v>544</v>
-      </c>
-      <c r="K99" t="s">
-        <v>545</v>
-      </c>
-      <c r="L99" t="n">
-        <v>17</v>
-      </c>
-      <c r="M99" t="s">
-        <v>546</v>
-      </c>
-      <c r="N99" t="n">
-        <v>14850</v>
-      </c>
-      <c r="O99" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100" t="s">
-        <v>548</v>
-      </c>
-      <c r="B100" t="s">
-        <v>549</v>
-      </c>
-      <c r="C100" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E100" t="s">
-        <v>47</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="s">
-        <v>40</v>
-      </c>
-      <c r="H100" t="s">
-        <v>21</v>
-      </c>
-      <c r="I100" t="s">
-        <v>21</v>
-      </c>
-      <c r="J100" t="s">
-        <v>550</v>
-      </c>
-      <c r="K100" t="s">
-        <v>551</v>
-      </c>
-      <c r="L100" t="n">
-        <v>7</v>
-      </c>
-      <c r="M100" t="s">
-        <v>552</v>
-      </c>
-      <c r="N100" t="n">
-        <v>43103</v>
-      </c>
-      <c r="O100" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" t="s">
-        <v>554</v>
-      </c>
-      <c r="B101" t="s">
-        <v>555</v>
-      </c>
-      <c r="C101" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" t="n">
-        <v>2400</v>
-      </c>
-      <c r="E101" t="s">
-        <v>47</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" t="s">
-        <v>20</v>
-      </c>
-      <c r="I101" t="s">
-        <v>21</v>
-      </c>
-      <c r="J101" t="s">
-        <v>556</v>
-      </c>
-      <c r="K101" t="s">
-        <v>557</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2</v>
-      </c>
-      <c r="M101" t="s">
-        <v>24</v>
-      </c>
-      <c r="N101" t="n">
-        <v>98281</v>
-      </c>
-      <c r="O101" t="s">
-        <v>558</v>
+      <c r="Q99" t="s">
+        <v>691</v>
+      </c>
+      <c r="R99" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Results_hammond_b3.xlsx
+++ b/Results_hammond_b3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="796">
   <si>
     <t>itemId</t>
   </si>
@@ -56,7 +56,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>postalCode</t>
+    <t>galleryURL</t>
   </si>
   <si>
     <t>viewItemURL</t>
@@ -71,27 +71,267 @@
     <t>positiveFeedbackPercent</t>
   </si>
   <si>
+    <t>332685809370</t>
+  </si>
+  <si>
+    <t>Nice!  HAMMOND A-100 organ &amp;122 LESLIE speaker w/ bench + pedals * All Good   b3</t>
+  </si>
+  <si>
+    <t>Seller refurbished</t>
+  </si>
+  <si>
+    <t>EndedWithSales</t>
+  </si>
+  <si>
+    <t>Auction</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>2018-06-18T00:00:32.000Z</t>
+  </si>
+  <si>
+    <t>2018-06-25T00:00:32.000Z</t>
+  </si>
+  <si>
+    <t>Wichita,KS,USA</t>
+  </si>
+  <si>
+    <t>http://thumbs3.ebaystatic.com/m/mGYIACAOcBVxjpOIWo98C7A/140.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/Nice-HAMMOND-A-100-organ-122-LESLIE-speaker-w-bench-pedals-All-Good-b3-/332685809370</t>
+  </si>
+  <si>
+    <t>nomidi</t>
+  </si>
+  <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>282981676683</t>
+  </si>
+  <si>
+    <t>1957 Hammond B3 Organ Vibrato With 122 Leslie And Original Speaker</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>EndedWithoutSales</t>
+  </si>
+  <si>
+    <t>FixedPrice</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>2018-05-25T23:28:11.000Z</t>
+  </si>
+  <si>
+    <t>2018-06-24T23:28:11.000Z</t>
+  </si>
+  <si>
+    <t>Prescott,AZ,USA</t>
+  </si>
+  <si>
+    <t>http://thumbs4.ebaystatic.com/m/mHQbAtJ56NVYPOKJLlcz6og/140.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/1957-Hammond-B3-Organ-Vibrato-122-Leslie-And-Original-Speaker-/282981676683</t>
+  </si>
+  <si>
+    <t>d_chamilton</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>94.7</t>
+  </si>
+  <si>
+    <t>292608522841</t>
+  </si>
+  <si>
+    <t>Hammond C2 Organ with H40 Tone Cabinet</t>
+  </si>
+  <si>
+    <t>2018-06-18T13:17:12.000Z</t>
+  </si>
+  <si>
+    <t>2018-06-24T17:00:11.000Z</t>
+  </si>
+  <si>
+    <t>Palm Bay,FL,USA</t>
+  </si>
+  <si>
+    <t>http://thumbs2.ebaystatic.com/m/mkZZinxo_ggCpTWgtfvhV1Q/140.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/Hammond-C2-Organ-H40-Tone-Cabinet-/292608522841</t>
+  </si>
+  <si>
+    <t>twist1ne</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>392068262622</t>
+  </si>
+  <si>
+    <t>Classic Hammond B3 Organ with Bench and Pedals</t>
+  </si>
+  <si>
+    <t>2018-06-20T00:19:03.000Z</t>
+  </si>
+  <si>
+    <t>2018-06-24T15:35:19.000Z</t>
+  </si>
+  <si>
+    <t>Dawsonville,GA,USA</t>
+  </si>
+  <si>
+    <t>http://thumbs3.ebaystatic.com/m/mC-oRSc46RCZWfevl2MHABw/140.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/Classic-Hammond-B3-Organ-Bench-and-Pedals-/392068262622</t>
+  </si>
+  <si>
+    <t>yellow-lab</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>192570728974</t>
+  </si>
+  <si>
+    <t>Roland VK-8M - Hammond organ module B3 sound</t>
+  </si>
+  <si>
+    <t>2018-06-16T23:25:58.000Z</t>
+  </si>
+  <si>
+    <t>2018-06-23T23:25:58.000Z</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>http://thumbs3.ebaystatic.com/m/moeoYl63ObXKLQVT-4kP9-A/140.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/Roland-VK-8M-Hammond-organ-module-B3-sound-/192570728974</t>
+  </si>
+  <si>
+    <t>simonmay777</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>282980273713</t>
+  </si>
+  <si>
+    <t>Hammond C3 Organ "Deep Purple "sound</t>
+  </si>
+  <si>
+    <t>2018-05-24T22:13:54.000Z</t>
+  </si>
+  <si>
+    <t>2018-06-23T22:13:54.000Z</t>
+  </si>
+  <si>
+    <t>Chatsworth,CA,USA</t>
+  </si>
+  <si>
+    <t>http://thumbs2.ebaystatic.com/m/mzHOeFABCf6iPw4ygxMrC2Q/140.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/Hammond-C3-Organ-Deep-Purple-sound-/282980273713</t>
+  </si>
+  <si>
+    <t>qotudzn35</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>202343211220</t>
+  </si>
+  <si>
+    <t>organ vintage hammond B-3 clone viscount legend organs mint condition</t>
+  </si>
+  <si>
+    <t>2018-06-16T20:45:04.000Z</t>
+  </si>
+  <si>
+    <t>2018-06-23T20:44:04.000Z</t>
+  </si>
+  <si>
+    <t>Houston,TX,USA</t>
+  </si>
+  <si>
+    <t>http://thumbs1.ebaystatic.com/m/myjY-eikwAsSkhrhxP_2rCg/140.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/organ-vintage-hammond-B-3-clone-viscount-legend-organs-mint-condition-/202343211220</t>
+  </si>
+  <si>
+    <t>dabr.inf.gv9qr5icgv</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>192569751202</t>
+  </si>
+  <si>
+    <t>Vintage HAMMOND A-100 Organ</t>
+  </si>
+  <si>
+    <t>2018-06-15T20:00:04.000Z</t>
+  </si>
+  <si>
+    <t>2018-06-22T20:00:04.000Z</t>
+  </si>
+  <si>
+    <t>Westfield,IN,USA</t>
+  </si>
+  <si>
+    <t>http://thumbs3.ebaystatic.com/m/mxUHriS7OwmQXEn1xytEdGQ/140.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/Vintage-HAMMOND-A-100-Organ-/192569751202</t>
+  </si>
+  <si>
+    <t>simsindy</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
     <t>352379754889</t>
   </si>
   <si>
     <t>Serviced 1964 Hammond A100 Organ Worldwide shipping!  B3 C3 etc</t>
   </si>
   <si>
-    <t>Used</t>
-  </si>
-  <si>
-    <t>EndedWithoutSales</t>
-  </si>
-  <si>
     <t>StoreInventory</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>2018-06-13T19:45:47.000Z</t>
   </si>
   <si>
@@ -101,6 +341,9 @@
     <t>Point Roberts,WA,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mcDhhrQQQflk8lRC7NEItZg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Serviced-1964-Hammond-A100-Organ-Worldwide-shipping-B3-C3-etc-/352379754889</t>
   </si>
   <si>
@@ -110,18 +353,12 @@
     <t>2133</t>
   </si>
   <si>
-    <t>100.0</t>
-  </si>
-  <si>
     <t>183272697573</t>
   </si>
   <si>
     <t>Hammond C-3 Organ and Leslie 122</t>
   </si>
   <si>
-    <t>Auction</t>
-  </si>
-  <si>
     <t>2018-06-13T19:25:57.000Z</t>
   </si>
   <si>
@@ -131,6 +368,9 @@
     <t>Centralia,IL,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mb8pSYIWdr-pCm_iCkMCLtw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-C-3-Organ-and-Leslie-122-/183272697573</t>
   </si>
   <si>
@@ -152,6 +392,9 @@
     <t>2018-06-20T19:25:25.000Z</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/mftwJiGxFA7cqdPWYhYhz1Q/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-A-100-Organ-21h-Leslie-/183272696830</t>
   </si>
   <si>
@@ -161,9 +404,6 @@
     <t>hammond organ a100</t>
   </si>
   <si>
-    <t>FixedPrice</t>
-  </si>
-  <si>
     <t>2018-06-13T18:49:57.000Z</t>
   </si>
   <si>
@@ -173,6 +413,9 @@
     <t>USA</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/mcBRMcSpc-D9xWu8PXq2-MA/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/hammond-organ-a100-/173363859834</t>
   </si>
   <si>
@@ -182,18 +425,12 @@
     <t>92</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>173337945274</t>
   </si>
   <si>
     <t>Nice Hammond A105 Organ C3 With Speakers  B3</t>
   </si>
   <si>
-    <t>EndedWithSales</t>
-  </si>
-  <si>
     <t>2018-05-27T17:16:01.000Z</t>
   </si>
   <si>
@@ -203,6 +440,9 @@
     <t>Assonet,MA,USA</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/mtyNZ6ZQOYrQfVlfSsCjCUw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Nice-Hammond-A105-Organ-C3-Speakers-B3-/173337945274</t>
   </si>
   <si>
@@ -227,15 +467,15 @@
     <t>Spring Mills,PA,USA</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/mny41cLOyf2rXqjeZw0Psjg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/hammond-organ-C-3-very-good-condition-Only-one-owner-/202339402914</t>
   </si>
   <si>
     <t>toonacurve6</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>173360993708</t>
   </si>
   <si>
@@ -251,6 +491,9 @@
     <t>Novato,CA,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mMeGphrI_6k7Erm9RGTMA4w/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-Organ-Chop-A-100-identical-B-3-/173360993708</t>
   </si>
   <si>
@@ -275,6 +518,9 @@
     <t>Cambridge,OH,USA</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mZv9WWxckKmZikBBbFkffJA/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/C-2-Hammond-Organ-Smooth-Drawbars-Bench-JR-20-Amp-/232801260559</t>
   </si>
   <si>
@@ -299,6 +545,9 @@
     <t>North Webster,IN,USA</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/miMiIsGk-y7UsRjcC2o5JLQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/REDUCED-500-BUY-NOW-ONLY-2500-00-Hammond-BC-organ-upgraded-B3-/223017354539</t>
   </si>
   <si>
@@ -323,6 +572,9 @@
     <t>Laguna Hills,CA,USA</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/m3m0iKuoMTG8LC7g8tOso2w/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/HAMMOND-B3-Clone-Tokai-TX-5-Classic-2-Keyboard-PRICE-REDUCED-DRASTICALLY-/142824049222</t>
   </si>
   <si>
@@ -350,6 +602,9 @@
     <t>Toledo,OH,USA</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mBx4ycWZq3GYxDLX9O-WhXw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/HAMMOND-B-2-JR20-tone-cabinet-B3-WORKS-/263741053599</t>
   </si>
   <si>
@@ -362,30 +617,18 @@
     <t>192562822254</t>
   </si>
   <si>
-    <t>Vintage HAMMOND A-100 Organ</t>
-  </si>
-  <si>
     <t>2018-06-08T19:59:53.000Z</t>
   </si>
   <si>
     <t>2018-06-15T19:59:53.000Z</t>
   </si>
   <si>
-    <t>Westfield,IN,USA</t>
-  </si>
-  <si>
     <t>http://www.ebay.com/itm/Vintage-HAMMOND-A-100-Organ-/192562822254</t>
   </si>
   <si>
-    <t>simsindy</t>
-  </si>
-  <si>
     <t>278</t>
   </si>
   <si>
-    <t>99.0</t>
-  </si>
-  <si>
     <t>292566687844</t>
   </si>
   <si>
@@ -401,6 +644,9 @@
     <t>Long Beach,CA,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mG6UVg1HnN3Zl3WgG4t5FxQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1965-Hammond-B3-PR-40-Tone-Cabinet-Time-Capsule-/292566687844</t>
   </si>
   <si>
@@ -416,27 +662,15 @@
     <t>292597076281</t>
   </si>
   <si>
-    <t>Hammond C2 Organ with H40 Tone Cabinet</t>
-  </si>
-  <si>
     <t>2018-06-09T01:21:37.000Z</t>
   </si>
   <si>
     <t>2018-06-14T13:12:53.000Z</t>
   </si>
   <si>
-    <t>Palm Bay,FL,USA</t>
-  </si>
-  <si>
     <t>http://www.ebay.com/itm/Hammond-C2-Organ-H40-Tone-Cabinet-/292597076281</t>
   </si>
   <si>
-    <t>twist1ne</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>132649342191</t>
   </si>
   <si>
@@ -452,6 +686,9 @@
     <t>Pueblo,CO,USA</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mVWOuch9XBhOIhrZHmMhjEQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B3-organ-leslie-122-cabinet-/132649342191</t>
   </si>
   <si>
@@ -476,6 +713,9 @@
     <t>2018-06-14T02:42:58.000Z</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mQmXslvyy7Lis6u6h05x6Sw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-C3-Organ-Same-B3-but-full-cabinet-Rock-and-Roll-Excellent-/332652658329</t>
   </si>
   <si>
@@ -500,6 +740,9 @@
     <t>Dallas,TX,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mR-ZaUtfm0D-WXNF_bxHxzg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1956-Hammond-C-3-Organ-w-Leslie-142-/253682130893</t>
   </si>
   <si>
@@ -530,9 +773,6 @@
     <t>1957 Hammond B3 Organ With 147 Leslie Just Serviced Amazing Condition</t>
   </si>
   <si>
-    <t>Seller refurbished</t>
-  </si>
-  <si>
     <t>2018-05-15T04:03:33.000Z</t>
   </si>
   <si>
@@ -542,6 +782,9 @@
     <t>Knoxville,TN,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mr2n6jgOTnkLD0pBTJXSidQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1957-Hammond-B3-Organ-147-Leslie-Just-Serviced-Amazing-Condition-/132622054476</t>
   </si>
   <si>
@@ -560,6 +803,9 @@
     <t>2018-06-13T01:18:25.000Z</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mh2dMuvuYt33tirP_CTEgjg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1966-Hammond-B3-Organ-Leslie-122-Speaker-worldwide-shipping-/173352679003</t>
   </si>
   <si>
@@ -578,15 +824,12 @@
     <t>2018-06-11T13:49:01.000Z</t>
   </si>
   <si>
-    <t>Dawsonville,GA,USA</t>
+    <t>http://thumbs4.ebaystatic.com/m/mC-oRSc46RCZWfevl2MHABw/140.jpg</t>
   </si>
   <si>
     <t>http://www.ebay.com/itm/Classic-Hammond-B3-Organ-Bench-and-Pedals-/263720887331</t>
   </si>
   <si>
-    <t>yellow-lab</t>
-  </si>
-  <si>
     <t>517</t>
   </si>
   <si>
@@ -617,6 +860,9 @@
     <t>Stevens Point,WI,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mPvzddXlaado86XpD09fBmw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-A100-Model-25-Leslie-/253658865296</t>
   </si>
   <si>
@@ -632,24 +878,18 @@
     <t>332672145539</t>
   </si>
   <si>
-    <t>Nice!  HAMMOND A-100 organ &amp;122 LESLIE speaker w/ bench + pedals * All Good   b3</t>
-  </si>
-  <si>
     <t>2018-06-04T00:00:34.000Z</t>
   </si>
   <si>
     <t>2018-06-11T00:00:34.000Z</t>
   </si>
   <si>
-    <t>Wichita,KS,USA</t>
+    <t>http://thumbs4.ebaystatic.com/m/mGYIACAOcBVxjpOIWo98C7A/140.jpg</t>
   </si>
   <si>
     <t>http://www.ebay.com/itm/Nice-HAMMOND-A-100-organ-122-LESLIE-speaker-w-bench-pedals-All-Good-b3-/332672145539</t>
   </si>
   <si>
-    <t>nomidi</t>
-  </si>
-  <si>
     <t>1314</t>
   </si>
   <si>
@@ -662,6 +902,9 @@
     <t>2018-06-10T19:03:55.000Z</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mR-ZaUtfm0D-WXNF_bxHxzg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1956-Hammond-C-3-Organ-w-Leslie-142-/253675614815</t>
   </si>
   <si>
@@ -695,6 +938,9 @@
     <t>Lynn Haven,FL,USA</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mLcL5fB0YFsAqq9UA8JSDuw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1952-Hammond-B2-Organ-Modded-Bill-Beer-Leslies-/292559600195</t>
   </si>
   <si>
@@ -719,6 +965,9 @@
     <t>Henderson,NV,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/miz029mm72Nuu1kQXEAoJQg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B3-Organ-Leslie-760-Speaker-/153052488421</t>
   </si>
   <si>
@@ -767,6 +1016,9 @@
     <t>2018-06-08T17:57:34.000Z</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mcVtgI7j5PLltYLtryar_GA/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-Suzuki-B3-Digital-Organ-Custom-Chop-Cabinet-Xk3-/173309623125</t>
   </si>
   <si>
@@ -782,6 +1034,9 @@
     <t>2018-06-07T03:43:19.000Z</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mftwJiGxFA7cqdPWYhYhz1Q/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-A-100-Organ-21h-Leslie-/183250652879</t>
   </si>
   <si>
@@ -800,6 +1055,9 @@
     <t>Paramount,CA,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mQl3_mbfV4OgSTbTBGfDpgQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/HAMMOND-A-100-A100-ORGAN-BENCH-BASS-PEDALS-COMPLETELY-SERVICED-/173306654993</t>
   </si>
   <si>
@@ -818,6 +1076,9 @@
     <t>2018-06-06T21:00:01.000Z</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/miMiIsGk-y7UsRjcC2o5JLQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1942-Hammond-BC-dual-tone-wheel-organ-upgraded-B3-/222998824209</t>
   </si>
   <si>
@@ -830,6 +1091,9 @@
     <t>2018-06-06T20:50:22.000Z</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/miz029mm72Nuu1kQXEAoJQg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B3-Organ-Leslie-760-Speaker-/153048200900</t>
   </si>
   <si>
@@ -851,6 +1115,9 @@
     <t>Ukraine</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/m4UaU0yHsCh27SsADQ5HK6w/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/TUBE-OVERDRIVE-HAMMOND-B3-A100-C2-C3-RT3-M100-M3-L100-/153013482150</t>
   </si>
   <si>
@@ -869,6 +1136,9 @@
     <t>2018-06-06T15:48:37.000Z</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/m3m0iKuoMTG8LC7g8tOso2w/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/HAMMOND-B3-Clone-Tokai-TX-5-Classic-2-Keyboard-PRICE-REDUCED-DRASTICALLY-/132643340960</t>
   </si>
   <si>
@@ -890,6 +1160,9 @@
     <t>Burbank,CA,USA</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/mq-EcDA2alQaClBC5nnWwPw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1965-Hammond-B3-Leslie-122-Collectors-players-dream-Cherrywood-set-/292087943526</t>
   </si>
   <si>
@@ -908,6 +1181,9 @@
     <t>2018-06-05T14:24:37.000Z</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mxUHriS7OwmQXEn1xytEdGQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Vintage-HAMMOND-A-100-Organ-/192553481199</t>
   </si>
   <si>
@@ -941,6 +1217,9 @@
     <t>Port Saint Lucie,FL,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mNYTlB_rtSmEYhkMruTt73w/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-A-100-Organ-Ebony-Solid-State-Setup-Leslie-Speaker-Cabinet-/273259390145</t>
   </si>
   <si>
@@ -965,6 +1244,9 @@
     <t>Moncks Corner,SC,USA</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/m227E0tYPBb9NZi-gQNc2nQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B-3-Custom-W-Leslie-Speaker-PRICE-CUT-/173303207298</t>
   </si>
   <si>
@@ -983,6 +1265,9 @@
     <t>2018-06-04T00:28:22.000Z</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mVWOuch9XBhOIhrZHmMhjEQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B3-organ-leslie-122-cabinet-/132635391941</t>
   </si>
   <si>
@@ -1001,6 +1286,9 @@
     <t>Hermitage,PA,USA</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/mBEwIBWdhz3zyI48lNfCs1A/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/HAMMOND-C3-ORGAN-W-LESLIE-SPEAKER-/323241024846</t>
   </si>
   <si>
@@ -1019,6 +1307,9 @@
     <t>2018-06-03T21:15:18.000Z</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mMeGphrI_6k7Erm9RGTMA4w/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-Organ-Chop-A-100-identical-B-3-/173338211291</t>
   </si>
   <si>
@@ -1043,6 +1334,9 @@
     <t>2018-06-01T22:05:28.000Z</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/mcDhhrQQQflk8lRC7NEItZg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Serviced-1964-Hammond-A100-Organ-Worldwide-shipping-B3-C3-etc-/352364586774</t>
   </si>
   <si>
@@ -1061,6 +1355,9 @@
     <t>2018-06-01T21:15:32.000Z</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mi-x9ke9jqS6ieTVCEem33A/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Serviced-Hammond-B3-Organ-Leslie-122RV-Speaker-worldwide-shipping-/173335638408</t>
   </si>
   <si>
@@ -1079,6 +1376,9 @@
     <t>New York,NY,USA</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mto8UgnijSxnIOe9cfzEvng/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Beautiful-Hammond-A100-Only-1-Previous-Owner-Just-Serviced-NYC-/183242294331</t>
   </si>
   <si>
@@ -1112,6 +1412,9 @@
     <t>2018-05-29T02:54:13.000Z</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mb8pSYIWdr-pCm_iCkMCLtw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-C-3-Organ-and-Leslie-122-/183236740815</t>
   </si>
   <si>
@@ -1142,6 +1445,9 @@
     <t>Sandy,UT,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mUWbKw0kiAPFsNYC_jTsKyA/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B3-Organ-bench-and-PR-40-Speaker-Reverberation-Cabinet-/232784174748</t>
   </si>
   <si>
@@ -1166,6 +1472,9 @@
     <t>Ben Wheeler,TX,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/m4e54FgUvW8eu5zECS_ATtQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-XC3-Organ-B3-Motherboard-Leslie-Bench-Cables-Owners-Manuals-/123104144489</t>
   </si>
   <si>
@@ -1184,6 +1493,9 @@
     <t>2018-05-27T17:46:20.000Z</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/miz029mm72Nuu1kQXEAoJQg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B3-Organ-Leslie-760-Speaker-/153035125614</t>
   </si>
   <si>
@@ -1199,6 +1511,9 @@
     <t>2018-05-26T15:02:56.000Z</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mNYTlB_rtSmEYhkMruTt73w/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-A-100-Organ-Ebony-Solid-State-Setup-Leslie-Speaker-Cabinet-/273223684472</t>
   </si>
   <si>
@@ -1211,39 +1526,15 @@
     <t>2018-05-26T04:08:37.000Z</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mh2dMuvuYt33tirP_CTEgjg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1966-Hammond-B3-Organ-Leslie-122-Speaker-worldwide-shipping-/173325284277</t>
   </si>
   <si>
     <t>2119</t>
   </si>
   <si>
-    <t>173324709219</t>
-  </si>
-  <si>
-    <t>2018-05-18T19:31:23.000Z</t>
-  </si>
-  <si>
-    <t>2018-05-25T19:31:23.000Z</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/Serviced-Hammond-B3-Organ-Leslie-122RV-Speaker-worldwide-shipping-/173324709219</t>
-  </si>
-  <si>
-    <t>2118</t>
-  </si>
-  <si>
-    <t>352358766648</t>
-  </si>
-  <si>
-    <t>2018-05-18T19:28:16.000Z</t>
-  </si>
-  <si>
-    <t>2018-05-25T19:28:16.000Z</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/Serviced-1964-Hammond-A100-Organ-Worldwide-shipping-B3-C3-etc-/352358766648</t>
-  </si>
-  <si>
     <t>282966518720</t>
   </si>
   <si>
@@ -1259,6 +1550,9 @@
     <t>Lambertville,NJ,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/m6OfgCDLf4_wuhKgqs2_qjQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-electric-organ-model-A-100-Leslie-speaker-model-147-/282966518720</t>
   </si>
   <si>
@@ -1268,42 +1562,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>282938607936</t>
-  </si>
-  <si>
-    <t>Hammond C3 Organ "Deep Purple "sound</t>
-  </si>
-  <si>
-    <t>2018-04-24T22:13:43.000Z</t>
-  </si>
-  <si>
-    <t>2018-05-24T22:13:43.000Z</t>
-  </si>
-  <si>
-    <t>Chatsworth,CA,USA</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/Hammond-C3-Organ-Deep-Purple-sound-/282938607936</t>
-  </si>
-  <si>
-    <t>qotudzn35</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>153031157858</t>
-  </si>
-  <si>
-    <t>2018-05-21T17:24:12.000Z</t>
-  </si>
-  <si>
-    <t>2018-05-24T17:24:12.000Z</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/Hammond-B3-Organ-Leslie-760-Speaker-/153031157858</t>
-  </si>
-  <si>
     <t>273233381521</t>
   </si>
   <si>
@@ -1319,6 +1577,9 @@
     <t>Lansing,MI,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/meIr6khBnomvunRi9GaljWw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B3-Leslie-222-speaker-/273233381521</t>
   </si>
   <si>
@@ -1346,6 +1607,9 @@
     <t>2018-05-17T23:20:07.000Z</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/mZv9WWxckKmZikBBbFkffJA/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/C-2-Hammond-Organ-Smooth-Drawbars-Bench-JR-20-Amp-/232764642262</t>
   </si>
   <si>
@@ -1367,6 +1631,9 @@
     <t>Pittsburgh,PA,USA</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/m7z4CgleDourucqvkx2p72g/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-C3-Organ-Pedals-Bench-and-Leslie-Speaker-B3-church-cabinet-/173317287327</t>
   </si>
   <si>
@@ -1391,6 +1658,9 @@
     <t>Somerset,NJ,USA</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/m3Ek_CTr80FqQIxMWVraozQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-C2-C3-Leslie-145-Bench-and-Pedals-1950-Aged-Cherry-/292565286146</t>
   </si>
   <si>
@@ -1415,6 +1685,9 @@
     <t>Moorpark,CA,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mQ7cJvOxp0LQy3yw_iyqtpg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/HAMMOND-B-2-B-3-Leslie-Speaker-GREAT-Condition-local-church-/273201354256</t>
   </si>
   <si>
@@ -1439,6 +1712,9 @@
     <t>Saint Clair Shores,MI,USA</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/m2d7mCqmdc0bOOTaIqEG60g/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Original-and-Authentic-Hammond-C2-Organ-Leslie-Cabinet-/292562346282</t>
   </si>
   <si>
@@ -1460,6 +1736,9 @@
     <t>2018-05-13T00:53:53.000Z</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/mhKmYMx9pHfRPIfAq8fgo4g/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-C3-Organ-Pedals-Leslie-122-speaker-B3-church-cabinet-WORKS-/263676616322</t>
   </si>
   <si>
@@ -1478,6 +1757,9 @@
     <t>Nazareth,PA,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/m9C3Wdq5He02_iqjBx4JSVg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B3-Lelie-122-MINT-1964-Cherry-Wood-rebuilt-scanner-LOWERED-price-/323245822972</t>
   </si>
   <si>
@@ -1502,6 +1784,9 @@
     <t>Jacksonville,FL,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/m6caq-7Rz1ru8KvD1esD48A/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/VINTAGE-LESLIE-900-SPEAKER-CABINET-HAMMOND-B-3-C-3-ORGAN-100-WATT-AMPLIFIER-/152977115101</t>
   </si>
   <si>
@@ -1529,6 +1814,9 @@
     <t>Philadelphia,PA,USA</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/meLd_qxzcSJBpGxaewk4ueg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Pristine-Hammond-B3-Organ-/153005250163</t>
   </si>
   <si>
@@ -1550,6 +1838,9 @@
     <t>Boise,ID,USA</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/mC7H5e44xajN11CVsGHCFvg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-Organ-GV-C3-and-B3-but-chorus-instead-percussion-/282938501842</t>
   </si>
   <si>
@@ -1574,6 +1865,9 @@
     <t>Las Vegas,NV,USA</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/m1RLyZRFo8Fo1TxVQL2wb-Q/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Vintage-HAMMOND-A-100-Organ-1959-B3-C3-/232745557214</t>
   </si>
   <si>
@@ -1598,6 +1892,9 @@
     <t>Oakland,CA,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mN-LrE7_swOVLvALPI1nTRw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Vintage-Korg-CX-3-CX3-Analog-Hammond-B3-C3-Organ-Modeling-Keyboard-/222950407716</t>
   </si>
   <si>
@@ -1622,6 +1919,9 @@
     <t>Trabuco Canyon,CA,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/maklF3h5w2fsFBKNR0460Lg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-b3-organ-Leslie-900-Original-Bench-and-Pedals-NO-RESERVE-/163007866440</t>
   </si>
   <si>
@@ -1646,6 +1946,9 @@
     <t>Tolland,CT,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mZkZjk8vED3wm5iUSuNJqHQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1963-Hammond-b3-Leslie-122-/253544612729</t>
   </si>
   <si>
@@ -1685,6 +1988,9 @@
     <t>Portland,OR,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mhT4VSkAj90ZZSE7pUyrBDQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B3-Organ-extras-2-PR20-tone-cabinets-bench-pedals-Portland-/112854559813</t>
   </si>
   <si>
@@ -1712,6 +2018,9 @@
     <t>Trenton,NJ,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/m9KsN5O8lc1xRasn_3F272A/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B2-Organ-w-Leslie-speaker-kit-122-/132583538944</t>
   </si>
   <si>
@@ -1736,6 +2045,9 @@
     <t>Riverton,UT,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mnIVrGva6n3ZnJLX35Ic0ng/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Vintage-HAMMOND-A-100-Organ-1965-B3-C3-/202293364177</t>
   </si>
   <si>
@@ -1760,6 +2072,9 @@
     <t>East Canton,OH,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mEgsIDJ8vETCW_jLFRFR1Aw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1963-Hammond-B3-Organ-PR40-Tone-Cabinet-/282922757320</t>
   </si>
   <si>
@@ -1784,6 +2099,9 @@
     <t>Mooresville,IN,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mNpOzQgfxvnnZSizltSJAbw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/hammond-organ-A-100-/162995068664</t>
   </si>
   <si>
@@ -1808,6 +2126,9 @@
     <t>McKinney,TX,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mXHyw2X9hhQKJEUR0JPrLmw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/HAMMOND-B-2-/263590114580</t>
   </si>
   <si>
@@ -1832,6 +2153,9 @@
     <t>Manhattan Beach,CA,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mnsQnOLiqw_QbIqdbCOOgcw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B3-organ-Early-60s-w-footpedals-bench-Studio-Speaker-and-Leslie-/142434214876</t>
   </si>
   <si>
@@ -1856,6 +2180,9 @@
     <t>Denton,TX,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/m9HGdUjYGlC55Ui8pUjDr0w/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Custom-Jan-Al-Road-Cases-Hammond-C-2-C-3-Organ-Great-Cond-Local-P-U-/152750322593</t>
   </si>
   <si>
@@ -1877,6 +2204,9 @@
     <t>Deerfield Beach,FL,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mdBvHSelr_0yr_qehEm87Ag/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-C-3-Organ-and-Speaker-/232679846309</t>
   </si>
   <si>
@@ -1898,6 +2228,9 @@
     <t>Saint Paul,MN,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mARJMPedgtueMSse_B_Cn9g/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1964-Hammond-B3-Leslie-1958-Hammond-B3-2-Leslies-/192497236016</t>
   </si>
   <si>
@@ -1916,6 +2249,9 @@
     <t>2018-04-05T16:47:10.000Z</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mG85GUaM3oxmgyU3z_fYXTA/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/1957-Hammond-C3-Organ-Leslie-122A-Professionally-Restored-worldwide-shipping-/352320245420</t>
   </si>
   <si>
@@ -1937,6 +2273,9 @@
     <t>Mechanicsville,VA,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/m7XHygjxF-HmgzTHSj-YJJg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/HAMMOND-A-100-A100-ORGAN-BENCH-BASS-PEDALS-LESLIE-147-B3-C3-/282883634096</t>
   </si>
   <si>
@@ -1961,6 +2300,9 @@
     <t>Troy,MI,USA</t>
   </si>
   <si>
+    <t>http://thumbs1.ebaystatic.com/m/mMEhIbLFUnfP-u9iytzTrXw/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B3-Organ-w-leslie-21H-mint-condition-Beautiful-Dark-Walnut-Color-/112889780204</t>
   </si>
   <si>
@@ -1982,6 +2324,9 @@
     <t>2018-03-30T03:29:44.000Z</t>
   </si>
   <si>
+    <t>http://thumbs3.ebaystatic.com/m/mFHUcOQk5gymZYHvMLb8oqg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-C3-organ-two-Leslies-/263565381102</t>
   </si>
   <si>
@@ -2003,6 +2348,9 @@
     <t>Delray Beach,FL,USA</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mySPa7i1g087Sa2UUndpAIQ/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Hammond-B-3-Organ-122-Leslie-/202271036819</t>
   </si>
   <si>
@@ -2027,6 +2375,9 @@
     <t>Richardson,TX,USA</t>
   </si>
   <si>
+    <t>http://thumbs2.ebaystatic.com/m/mZ-OXW9r5TosmH4GN1YwjBA/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/HAMMOND-A100-ORGAN-/263556157105</t>
   </si>
   <si>
@@ -2045,52 +2396,13 @@
     <t>Ithaca,NY,USA</t>
   </si>
   <si>
+    <t>http://thumbs4.ebaystatic.com/m/mjSVGr1GgEti89Gf0aFdaDg/140.jpg</t>
+  </si>
+  <si>
     <t>http://www.ebay.com/itm/Vintage-HAMMOND-A-100-Organ-1965-B3-C3-/282893476043</t>
   </si>
   <si>
     <t>laurclevelan-8</t>
-  </si>
-  <si>
-    <t>192488661094</t>
-  </si>
-  <si>
-    <t>1964 Hammond B3 Organ With PR40 Tone Cabinet</t>
-  </si>
-  <si>
-    <t>2018-03-21T15:29:08.000Z</t>
-  </si>
-  <si>
-    <t>2018-03-27T19:59:02.000Z</t>
-  </si>
-  <si>
-    <t>Ashville,OH,USA</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/1964-Hammond-B3-Organ-PR40-Tone-Cabinet-/192488661094</t>
-  </si>
-  <si>
-    <t>maydaydrums</t>
-  </si>
-  <si>
-    <t>718</t>
-  </si>
-  <si>
-    <t>352311673148</t>
-  </si>
-  <si>
-    <t>1961 Hammond A102 A100 Organ Worldwide shipping!  B3 C3 etc</t>
-  </si>
-  <si>
-    <t>2018-03-22T03:04:14.000Z</t>
-  </si>
-  <si>
-    <t>2018-03-27T18:00:38.000Z</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/1961-Hammond-A102-A100-Organ-Worldwide-shipping-B3-C3-etc-/352311673148</t>
-  </si>
-  <si>
-    <t>2085</t>
   </si>
 </sst>
 </file>
@@ -2439,7 +2751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2514,13 +2826,13 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>2999.99</v>
+        <v>2300</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -2529,22 +2841,22 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="n">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" t="n">
-        <v>98281</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -2567,66 +2879,66 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>3800</v>
+        <v>3995</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="n">
-        <v>62801</v>
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -2635,37 +2947,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="n">
-        <v>62801</v>
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="R4" t="s">
         <v>31</v>
@@ -2673,16 +2985,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -2691,93 +3003,93 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L6" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2702</v>
+        <v>68</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s">
         <v>31</v>
@@ -2785,279 +3097,279 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>1050</v>
+        <v>2200</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L7" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" t="n">
-        <v>16875</v>
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>860</v>
+        <v>3995</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" t="n">
-        <v>10</v>
-      </c>
       <c r="M8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" t="n">
-        <v>94945</v>
+        <v>86</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>690</v>
+        <v>2750</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="L9" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" t="n">
-        <v>43725</v>
+        <v>96</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="Q9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
-        <v>2125</v>
+        <v>2999.99</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" t="n">
-        <v>46555</v>
+        <v>107</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="Q10" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>1395</v>
+        <v>3800</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" t="n">
-        <v>92637</v>
+        <v>116</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="Q11" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="R11" t="s">
         <v>31</v>
@@ -3065,55 +3377,55 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
-        <v>749</v>
+        <v>3500</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="L12" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N12" t="n">
-        <v>43615</v>
+        <v>116</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="R12" t="s">
         <v>31</v>
@@ -3121,72 +3433,72 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>118</v>
-      </c>
-      <c r="N13" t="n">
-        <v>46074</v>
+        <v>131</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="Q13" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="R13" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>6900</v>
+        <v>1999</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -3195,205 +3507,205 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M14" t="s">
-        <v>127</v>
-      </c>
-      <c r="N14" t="n">
-        <v>90807</v>
+        <v>140</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="Q14" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="R14" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N15" t="n">
-        <v>32908</v>
+        <v>149</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="Q15" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="R15" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>4500</v>
+        <v>860</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
         <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N16" t="n">
-        <v>81006</v>
+        <v>157</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Q16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="R16" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
-        <v>2799.99</v>
+        <v>690</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
-      </c>
-      <c r="N17" t="n">
-        <v>92653</v>
+        <v>166</v>
+      </c>
+      <c r="N17" t="s">
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="Q17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="R17" t="s">
         <v>31</v>
@@ -3401,16 +3713,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>5995</v>
+        <v>2125</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -3419,149 +3731,149 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" t="s">
-        <v>160</v>
-      </c>
-      <c r="N18" t="n">
-        <v>75240</v>
+        <v>175</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Q18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="R18" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>3000</v>
+        <v>1395</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>93</v>
-      </c>
-      <c r="N19" t="n">
-        <v>46555</v>
+        <v>184</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P19" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="Q19" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="R19" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
-        <v>11500</v>
+        <v>749</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
         <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>174</v>
-      </c>
-      <c r="N20" t="n">
-        <v>37923</v>
+        <v>194</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
       </c>
       <c r="O20" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="Q20" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="R20" t="s">
         <v>31</v>
@@ -3569,128 +3881,128 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>5299.99</v>
+        <v>2750</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" t="n">
-        <v>98281</v>
+        <v>96</v>
+      </c>
+      <c r="N21" t="s">
+        <v>97</v>
       </c>
       <c r="O21" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="P21" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="Q21" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="R21" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>3100</v>
+        <v>6900</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
         <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="L22" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="M22" t="s">
-        <v>187</v>
-      </c>
-      <c r="N22" t="n">
-        <v>30534</v>
+        <v>208</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
       </c>
       <c r="O22" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="Q22" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="R22" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -3699,37 +4011,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M23" t="s">
-        <v>77</v>
-      </c>
-      <c r="N23" t="n">
-        <v>94945</v>
+        <v>50</v>
+      </c>
+      <c r="N23" t="s">
+        <v>51</v>
       </c>
       <c r="O23" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="Q23" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="R23" t="s">
         <v>31</v>
@@ -3737,111 +4049,111 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>1932</v>
+        <v>4500</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="L24" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>199</v>
-      </c>
-      <c r="N24" t="n">
-        <v>54481</v>
+        <v>222</v>
+      </c>
+      <c r="N24" t="s">
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="Q24" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="R24" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>3115</v>
+        <v>2799.99</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L25" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M25" t="s">
-        <v>208</v>
-      </c>
-      <c r="N25" t="n">
-        <v>67277</v>
+        <v>184</v>
+      </c>
+      <c r="N25" t="s">
+        <v>232</v>
       </c>
       <c r="O25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="Q25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="R25" t="s">
         <v>31</v>
@@ -3849,55 +4161,55 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
         <v>5995</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>160</v>
-      </c>
-      <c r="N26" t="n">
-        <v>75240</v>
+        <v>240</v>
+      </c>
+      <c r="N26" t="s">
+        <v>241</v>
       </c>
       <c r="O26" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="Q26" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="R26" t="s">
         <v>31</v>
@@ -3905,111 +4217,111 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
         <v>37</v>
       </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s">
-        <v>24</v>
-      </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="L27" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M27" t="s">
-        <v>69</v>
-      </c>
-      <c r="N27" t="n">
-        <v>16875</v>
+        <v>175</v>
+      </c>
+      <c r="N27" t="s">
+        <v>176</v>
       </c>
       <c r="O27" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="P27" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="Q27" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="R27" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>225</v>
-      </c>
-      <c r="N28" t="n">
-        <v>32444</v>
+        <v>254</v>
+      </c>
+      <c r="N28" t="s">
+        <v>255</v>
       </c>
       <c r="O28" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="P28" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="Q28" t="s">
-        <v>228</v>
+        <v>90</v>
       </c>
       <c r="R28" t="s">
         <v>31</v>
@@ -4017,55 +4329,55 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>3795</v>
+        <v>5299.99</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
         <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="K29" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M29" t="s">
-        <v>233</v>
-      </c>
-      <c r="N29" t="n">
-        <v>89011</v>
+        <v>107</v>
+      </c>
+      <c r="N29" t="s">
+        <v>262</v>
       </c>
       <c r="O29" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="P29" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="Q29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="R29" t="s">
         <v>31</v>
@@ -4073,16 +4385,16 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
-        <v>850</v>
+        <v>3100</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -4091,37 +4403,37 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="L30" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M30" t="s">
-        <v>136</v>
-      </c>
-      <c r="N30" t="n">
-        <v>32908</v>
+        <v>59</v>
+      </c>
+      <c r="N30" t="s">
+        <v>269</v>
       </c>
       <c r="O30" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="Q30" t="s">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="R30" t="s">
         <v>31</v>
@@ -4129,19 +4441,19 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
-        <v>2999.99</v>
+        <v>950</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -4153,31 +4465,31 @@
         <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="K31" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M31" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" t="n">
-        <v>98281</v>
+        <v>157</v>
+      </c>
+      <c r="N31" t="s">
+        <v>158</v>
       </c>
       <c r="O31" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="P31" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="Q31" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="R31" t="s">
         <v>31</v>
@@ -4185,16 +4497,16 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D32" t="n">
-        <v>2999</v>
+        <v>1932</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -4203,93 +4515,93 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="L32" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>61</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2702</v>
+        <v>280</v>
+      </c>
+      <c r="N32" t="s">
+        <v>281</v>
       </c>
       <c r="O32" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="P32" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="Q32" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="R32" t="s">
-        <v>31</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>3500</v>
+        <v>3115</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
-      </c>
-      <c r="N33" t="n">
-        <v>62801</v>
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>289</v>
       </c>
       <c r="O33" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="Q33" t="s">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="R33" t="s">
         <v>31</v>
@@ -4297,55 +4609,55 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
-        <v>2695</v>
+        <v>5995</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="L34" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>260</v>
-      </c>
-      <c r="N34" t="n">
-        <v>90723</v>
+        <v>240</v>
+      </c>
+      <c r="N34" t="s">
+        <v>295</v>
       </c>
       <c r="O34" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="P34" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="Q34" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="R34" t="s">
         <v>31</v>
@@ -4353,111 +4665,111 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>298</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="n">
         <v>24</v>
       </c>
-      <c r="I35" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" t="s">
-        <v>265</v>
-      </c>
-      <c r="K35" t="s">
-        <v>266</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
       <c r="M35" t="s">
-        <v>93</v>
-      </c>
-      <c r="N35" t="n">
-        <v>46555</v>
+        <v>149</v>
+      </c>
+      <c r="N35" t="s">
+        <v>150</v>
       </c>
       <c r="O35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="P35" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="Q35" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="R35" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
-        <v>3995</v>
+        <v>8000</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s">
         <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>233</v>
-      </c>
-      <c r="N36" t="n">
-        <v>89011</v>
+        <v>306</v>
+      </c>
+      <c r="N36" t="s">
+        <v>307</v>
       </c>
       <c r="O36" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="Q36" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="R36" t="s">
         <v>31</v>
@@ -4465,55 +4777,55 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="C37" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
-        <v>650</v>
+        <v>3795</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M37" t="s">
-        <v>277</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="N37" t="s">
+        <v>316</v>
       </c>
       <c r="O37" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="P37" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="Q37" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="R37" t="s">
         <v>31</v>
@@ -4521,55 +4833,55 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
-        <v>1495</v>
+        <v>850</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="K38" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M38" t="s">
-        <v>101</v>
-      </c>
-      <c r="N38" t="n">
-        <v>92637</v>
+        <v>50</v>
+      </c>
+      <c r="N38" t="s">
+        <v>51</v>
       </c>
       <c r="O38" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="P38" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="Q38" t="s">
-        <v>285</v>
+        <v>54</v>
       </c>
       <c r="R38" t="s">
         <v>31</v>
@@ -4577,55 +4889,55 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
-        <v>8000</v>
+        <v>2999.99</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="K39" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="L39" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="M39" t="s">
-        <v>290</v>
-      </c>
-      <c r="N39" t="n">
-        <v>91504</v>
+        <v>107</v>
+      </c>
+      <c r="N39" t="s">
+        <v>108</v>
       </c>
       <c r="O39" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="P39" t="s">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="Q39" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="R39" t="s">
         <v>31</v>
@@ -4633,111 +4945,111 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
-        <v>2800</v>
+        <v>2999</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s">
         <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="K40" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M40" t="s">
-        <v>118</v>
-      </c>
-      <c r="N40" t="n">
-        <v>46074</v>
+        <v>140</v>
+      </c>
+      <c r="N40" t="s">
+        <v>333</v>
       </c>
       <c r="O40" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="P40" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="Q40" t="s">
-        <v>121</v>
+        <v>335</v>
       </c>
       <c r="R40" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
-        <v>5499.99</v>
+        <v>3500</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" t="n">
-        <v>98281</v>
+        <v>116</v>
+      </c>
+      <c r="N41" t="s">
+        <v>339</v>
       </c>
       <c r="O41" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="P41" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="Q41" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="R41" t="s">
         <v>31</v>
@@ -4745,55 +5057,55 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="C42" t="s">
         <v>20</v>
       </c>
       <c r="D42" t="n">
-        <v>1090</v>
+        <v>2695</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H42" t="s">
         <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J42" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="K42" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M42" t="s">
-        <v>307</v>
-      </c>
-      <c r="N42" t="n">
-        <v>34953</v>
+        <v>345</v>
+      </c>
+      <c r="N42" t="s">
+        <v>346</v>
       </c>
       <c r="O42" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="P42" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="Q42" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="R42" t="s">
         <v>31</v>
@@ -4801,167 +5113,167 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>12500</v>
+        <v>3000</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
         <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="K43" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="L43" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>315</v>
-      </c>
-      <c r="N43" t="n">
-        <v>29461</v>
+        <v>175</v>
+      </c>
+      <c r="N43" t="s">
+        <v>353</v>
       </c>
       <c r="O43" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="P43" t="s">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="Q43" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="R43" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
-        <v>4500</v>
+        <v>3995</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s">
         <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="L44" t="n">
         <v>3</v>
       </c>
       <c r="M44" t="s">
-        <v>144</v>
-      </c>
-      <c r="N44" t="n">
-        <v>81006</v>
+        <v>315</v>
+      </c>
+      <c r="N44" t="s">
+        <v>358</v>
       </c>
       <c r="O44" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>318</v>
       </c>
       <c r="Q44" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="R44" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="D45" t="n">
-        <v>4999</v>
+        <v>650</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="K45" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="L45" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>327</v>
-      </c>
-      <c r="N45" t="n">
-        <v>16148</v>
+        <v>365</v>
+      </c>
+      <c r="N45" t="s">
+        <v>366</v>
       </c>
       <c r="O45" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="P45" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="Q45" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="R45" t="s">
         <v>31</v>
@@ -4969,55 +5281,55 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
-        <v>1100</v>
+        <v>1495</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
         <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="K46" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M46" t="s">
-        <v>77</v>
-      </c>
-      <c r="N46" t="n">
-        <v>94945</v>
+        <v>184</v>
+      </c>
+      <c r="N46" t="s">
+        <v>373</v>
       </c>
       <c r="O46" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="P46" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="Q46" t="s">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="R46" t="s">
         <v>31</v>
@@ -5025,16 +5337,16 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
-        <v>4650</v>
+        <v>8000</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
@@ -5043,37 +5355,37 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s">
         <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="K47" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="M47" t="s">
-        <v>233</v>
-      </c>
-      <c r="N47" t="n">
-        <v>89011</v>
+        <v>380</v>
+      </c>
+      <c r="N47" t="s">
+        <v>381</v>
       </c>
       <c r="O47" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>383</v>
       </c>
       <c r="Q47" t="s">
-        <v>236</v>
+        <v>384</v>
       </c>
       <c r="R47" t="s">
         <v>31</v>
@@ -5081,19 +5393,19 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
-        <v>2999.99</v>
+        <v>2800</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -5102,90 +5414,90 @@
         <v>22</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="K48" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>27</v>
-      </c>
-      <c r="N48" t="n">
-        <v>98281</v>
+        <v>96</v>
+      </c>
+      <c r="N48" t="s">
+        <v>388</v>
       </c>
       <c r="O48" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="P48" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="Q48" t="s">
-        <v>343</v>
+        <v>203</v>
       </c>
       <c r="R48" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s">
-        <v>345</v>
+        <v>259</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
-        <v>6299</v>
+        <v>5499.99</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="L49" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N49" t="n">
-        <v>98281</v>
+        <v>107</v>
+      </c>
+      <c r="N49" t="s">
+        <v>262</v>
       </c>
       <c r="O49" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="P49" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="Q49" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="R49" t="s">
         <v>31</v>
@@ -5193,16 +5505,16 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
-        <v>2500</v>
+        <v>1090</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -5211,37 +5523,37 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I50" t="s">
         <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="K50" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>353</v>
-      </c>
-      <c r="N50" t="n">
-        <v>10004</v>
+        <v>399</v>
+      </c>
+      <c r="N50" t="s">
+        <v>400</v>
       </c>
       <c r="O50" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="P50" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="Q50" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="R50" t="s">
         <v>31</v>
@@ -5249,55 +5561,55 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>1995</v>
+        <v>12500</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J51" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="K51" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M51" t="s">
-        <v>101</v>
-      </c>
-      <c r="N51" t="n">
-        <v>92637</v>
+        <v>408</v>
+      </c>
+      <c r="N51" t="s">
+        <v>409</v>
       </c>
       <c r="O51" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="P51" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="Q51" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="R51" t="s">
         <v>31</v>
@@ -5305,111 +5617,111 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J52" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="K52" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M52" t="s">
-        <v>37</v>
-      </c>
-      <c r="N52" t="n">
-        <v>62801</v>
+        <v>222</v>
+      </c>
+      <c r="N52" t="s">
+        <v>416</v>
       </c>
       <c r="O52" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="P52" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="Q52" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="R52" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>419</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
-        <v>3500</v>
+        <v>4999</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="H53" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J53" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="K53" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M53" t="s">
-        <v>37</v>
-      </c>
-      <c r="N53" t="n">
-        <v>62801</v>
+        <v>422</v>
+      </c>
+      <c r="N53" t="s">
+        <v>423</v>
       </c>
       <c r="O53" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="P53" t="s">
-        <v>39</v>
+        <v>425</v>
       </c>
       <c r="Q53" t="s">
-        <v>40</v>
+        <v>426</v>
       </c>
       <c r="R53" t="s">
         <v>31</v>
@@ -5417,55 +5729,55 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="B54" t="s">
-        <v>371</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="K54" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="L54" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M54" t="s">
-        <v>374</v>
-      </c>
-      <c r="N54" t="n">
-        <v>84092</v>
+        <v>157</v>
+      </c>
+      <c r="N54" t="s">
+        <v>430</v>
       </c>
       <c r="O54" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="P54" t="s">
-        <v>376</v>
+        <v>160</v>
       </c>
       <c r="Q54" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="R54" t="s">
         <v>31</v>
@@ -5473,55 +5785,55 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
-        <v>11000</v>
+        <v>4650</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="K55" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>382</v>
-      </c>
-      <c r="N55" t="n">
-        <v>75754</v>
+        <v>315</v>
+      </c>
+      <c r="N55" t="s">
+        <v>316</v>
       </c>
       <c r="O55" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="P55" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="Q55" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="R55" t="s">
         <v>31</v>
@@ -5529,55 +5841,55 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="B56" t="s">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
-        <v>4650</v>
+        <v>2999.99</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="K56" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M56" t="s">
-        <v>233</v>
-      </c>
-      <c r="N56" t="n">
-        <v>89011</v>
+        <v>107</v>
+      </c>
+      <c r="N56" t="s">
+        <v>439</v>
       </c>
       <c r="O56" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="Q56" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="R56" t="s">
         <v>31</v>
@@ -5585,55 +5897,55 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="B57" t="s">
-        <v>304</v>
+        <v>443</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
-        <v>1150</v>
+        <v>6299</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F57" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="K57" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="L57" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M57" t="s">
-        <v>307</v>
-      </c>
-      <c r="N57" t="n">
-        <v>34953</v>
+        <v>107</v>
+      </c>
+      <c r="N57" t="s">
+        <v>446</v>
       </c>
       <c r="O57" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="P57" t="s">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="Q57" t="s">
-        <v>310</v>
+        <v>441</v>
       </c>
       <c r="R57" t="s">
         <v>31</v>
@@ -5641,55 +5953,55 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>449</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
-        <v>5499.99</v>
+        <v>2500</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J58" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="K58" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="L58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M58" t="s">
-        <v>27</v>
-      </c>
-      <c r="N58" t="n">
-        <v>98281</v>
+        <v>452</v>
+      </c>
+      <c r="N58" t="s">
+        <v>453</v>
       </c>
       <c r="O58" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="P58" t="s">
-        <v>29</v>
+        <v>455</v>
       </c>
       <c r="Q58" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="R58" t="s">
         <v>31</v>
@@ -5697,55 +6009,55 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="B59" t="s">
-        <v>345</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
-        <v>6299</v>
+        <v>1995</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J59" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="K59" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>27</v>
-      </c>
-      <c r="N59" t="n">
-        <v>98281</v>
+        <v>184</v>
+      </c>
+      <c r="N59" t="s">
+        <v>373</v>
       </c>
       <c r="O59" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="P59" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="Q59" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="R59" t="s">
         <v>31</v>
@@ -5753,19 +6065,19 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D60" t="n">
-        <v>3250</v>
+        <v>3800</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -5777,31 +6089,31 @@
         <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J60" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="K60" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M60" t="s">
-        <v>27</v>
-      </c>
-      <c r="N60" t="n">
-        <v>98281</v>
+        <v>116</v>
+      </c>
+      <c r="N60" t="s">
+        <v>465</v>
       </c>
       <c r="O60" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="P60" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="Q60" t="s">
-        <v>404</v>
+        <v>120</v>
       </c>
       <c r="R60" t="s">
         <v>31</v>
@@ -5809,55 +6121,55 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="B61" t="s">
-        <v>410</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="K61" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="L61" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="M61" t="s">
-        <v>413</v>
-      </c>
-      <c r="N61" t="n">
-        <v>8530</v>
+        <v>116</v>
+      </c>
+      <c r="N61" t="s">
+        <v>339</v>
       </c>
       <c r="O61" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="P61" t="s">
-        <v>415</v>
+        <v>119</v>
       </c>
       <c r="Q61" t="s">
-        <v>416</v>
+        <v>120</v>
       </c>
       <c r="R61" t="s">
         <v>31</v>
@@ -5865,13 +6177,13 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D62" t="n">
         <v>2200</v>
@@ -5883,37 +6195,37 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J62" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="K62" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="L62" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M62" t="s">
-        <v>421</v>
-      </c>
-      <c r="N62" t="n">
-        <v>91311</v>
+        <v>475</v>
+      </c>
+      <c r="N62" t="s">
+        <v>476</v>
       </c>
       <c r="O62" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="P62" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="Q62" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="R62" t="s">
         <v>31</v>
@@ -5921,55 +6233,55 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>481</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D63" t="n">
-        <v>4995</v>
+        <v>11000</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="K63" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M63" t="s">
-        <v>233</v>
-      </c>
-      <c r="N63" t="n">
-        <v>89011</v>
+        <v>484</v>
+      </c>
+      <c r="N63" t="s">
+        <v>485</v>
       </c>
       <c r="O63" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="P63" t="s">
-        <v>235</v>
+        <v>487</v>
       </c>
       <c r="Q63" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="R63" t="s">
         <v>31</v>
@@ -5977,55 +6289,55 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="B64" t="s">
-        <v>430</v>
+        <v>312</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D64" t="n">
-        <v>500</v>
+        <v>4650</v>
       </c>
       <c r="E64" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H64" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J64" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="K64" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>433</v>
-      </c>
-      <c r="N64" t="n">
-        <v>48910</v>
+        <v>315</v>
+      </c>
+      <c r="N64" t="s">
+        <v>492</v>
       </c>
       <c r="O64" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="P64" t="s">
-        <v>435</v>
+        <v>318</v>
       </c>
       <c r="Q64" t="s">
-        <v>72</v>
+        <v>494</v>
       </c>
       <c r="R64" t="s">
         <v>31</v>
@@ -6033,55 +6345,55 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="B65" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D65" t="n">
-        <v>2500</v>
+        <v>1150</v>
       </c>
       <c r="E65" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J65" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="K65" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="L65" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M65" t="s">
-        <v>374</v>
-      </c>
-      <c r="N65" t="n">
-        <v>84092</v>
+        <v>399</v>
+      </c>
+      <c r="N65" t="s">
+        <v>498</v>
       </c>
       <c r="O65" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="P65" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="Q65" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="R65" t="s">
         <v>31</v>
@@ -6089,55 +6401,55 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D66" t="n">
-        <v>510</v>
+        <v>5499.99</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F66" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J66" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="K66" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="L66" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M66" t="s">
-        <v>85</v>
-      </c>
-      <c r="N66" t="n">
-        <v>43725</v>
+        <v>107</v>
+      </c>
+      <c r="N66" t="s">
+        <v>503</v>
       </c>
       <c r="O66" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="P66" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="Q66" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="R66" t="s">
         <v>31</v>
@@ -6145,55 +6457,55 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="B67" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D67" t="n">
-        <v>2497</v>
+        <v>1500</v>
       </c>
       <c r="E67" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H67" t="s">
         <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J67" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
       <c r="K67" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
       <c r="L67" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="M67" t="s">
-        <v>449</v>
-      </c>
-      <c r="N67" t="n">
-        <v>15235</v>
+        <v>510</v>
+      </c>
+      <c r="N67" t="s">
+        <v>511</v>
       </c>
       <c r="O67" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="P67" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="Q67" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="R67" t="s">
         <v>31</v>
@@ -6201,55 +6513,55 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
       <c r="B68" t="s">
-        <v>454</v>
+        <v>516</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D68" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J68" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="K68" t="s">
-        <v>456</v>
+        <v>518</v>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M68" t="s">
-        <v>457</v>
-      </c>
-      <c r="N68" t="n">
-        <v>8873</v>
+        <v>519</v>
+      </c>
+      <c r="N68" t="s">
+        <v>520</v>
       </c>
       <c r="O68" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="P68" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="Q68" t="s">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="R68" t="s">
         <v>31</v>
@@ -6257,55 +6569,55 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="B69" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D69" t="n">
         <v>2500</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J69" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="K69" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="L69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M69" t="s">
-        <v>465</v>
-      </c>
-      <c r="N69" t="n">
-        <v>93021</v>
+        <v>475</v>
+      </c>
+      <c r="N69" t="s">
+        <v>476</v>
       </c>
       <c r="O69" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="P69" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="Q69" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="R69" t="s">
         <v>31</v>
@@ -6313,55 +6625,55 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="B70" t="s">
-        <v>470</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D70" t="n">
-        <v>2000</v>
+        <v>510</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H70" t="s">
         <v>23</v>
       </c>
       <c r="I70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J70" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="K70" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M70" t="s">
-        <v>473</v>
-      </c>
-      <c r="N70" t="n">
-        <v>48081</v>
+        <v>166</v>
+      </c>
+      <c r="N70" t="s">
+        <v>530</v>
       </c>
       <c r="O70" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="P70" t="s">
-        <v>475</v>
+        <v>169</v>
       </c>
       <c r="Q70" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="R70" t="s">
         <v>31</v>
@@ -6369,55 +6681,55 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="B71" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D71" t="n">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J71" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="K71" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="L71" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M71" t="s">
-        <v>110</v>
-      </c>
-      <c r="N71" t="n">
-        <v>43615</v>
+        <v>537</v>
+      </c>
+      <c r="N71" t="s">
+        <v>538</v>
       </c>
       <c r="O71" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="P71" t="s">
-        <v>112</v>
+        <v>540</v>
       </c>
       <c r="Q71" t="s">
-        <v>113</v>
+        <v>541</v>
       </c>
       <c r="R71" t="s">
         <v>31</v>
@@ -6425,55 +6737,55 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="B72" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="D72" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H72" t="s">
         <v>23</v>
       </c>
       <c r="I72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J72" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="K72" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M72" t="s">
-        <v>486</v>
-      </c>
-      <c r="N72" t="n">
-        <v>18064</v>
+        <v>546</v>
+      </c>
+      <c r="N72" t="s">
+        <v>547</v>
       </c>
       <c r="O72" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
       <c r="P72" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="Q72" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="R72" t="s">
         <v>31</v>
@@ -6481,55 +6793,55 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="B73" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D73" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H73" t="s">
         <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J73" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="K73" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M73" t="s">
-        <v>494</v>
-      </c>
-      <c r="N73" t="n">
-        <v>32223</v>
+        <v>555</v>
+      </c>
+      <c r="N73" t="s">
+        <v>556</v>
       </c>
       <c r="O73" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="P73" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="Q73" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
       <c r="R73" t="s">
         <v>31</v>
@@ -6537,55 +6849,55 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="B74" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="C74" t="s">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
-        <v>3850</v>
+        <v>2000</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F74" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="K74" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="L74" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="M74" t="s">
-        <v>503</v>
-      </c>
-      <c r="N74" t="n">
-        <v>19122</v>
+        <v>564</v>
+      </c>
+      <c r="N74" t="s">
+        <v>565</v>
       </c>
       <c r="O74" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="P74" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="Q74" t="s">
-        <v>377</v>
+        <v>568</v>
       </c>
       <c r="R74" t="s">
         <v>31</v>
@@ -6593,55 +6905,55 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="B75" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D75" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="E75" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H75" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J75" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="K75" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M75" t="s">
-        <v>510</v>
-      </c>
-      <c r="N75" t="n">
-        <v>83704</v>
+        <v>194</v>
+      </c>
+      <c r="N75" t="s">
+        <v>573</v>
       </c>
       <c r="O75" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="P75" t="s">
-        <v>512</v>
+        <v>197</v>
       </c>
       <c r="Q75" t="s">
-        <v>513</v>
+        <v>198</v>
       </c>
       <c r="R75" t="s">
         <v>31</v>
@@ -6649,55 +6961,55 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="B76" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="C76" t="s">
         <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>841</v>
+        <v>6000</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H76" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J76" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="K76" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="L76" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M76" t="s">
-        <v>518</v>
-      </c>
-      <c r="N76" t="n">
-        <v>89129</v>
+        <v>579</v>
+      </c>
+      <c r="N76" t="s">
+        <v>580</v>
       </c>
       <c r="O76" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="P76" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="Q76" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="R76" t="s">
         <v>31</v>
@@ -6705,55 +7017,55 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="B77" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D77" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J77" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="K77" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M77" t="s">
-        <v>526</v>
-      </c>
-      <c r="N77" t="n">
-        <v>94610</v>
+        <v>588</v>
+      </c>
+      <c r="N77" t="s">
+        <v>589</v>
       </c>
       <c r="O77" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
       <c r="P77" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="Q77" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="R77" t="s">
         <v>31</v>
@@ -6761,55 +7073,55 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="B78" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>595</v>
       </c>
       <c r="D78" t="n">
-        <v>2136</v>
+        <v>3850</v>
       </c>
       <c r="E78" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F78" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J78" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="K78" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="L78" t="n">
         <v>26</v>
       </c>
       <c r="M78" t="s">
-        <v>534</v>
-      </c>
-      <c r="N78" t="n">
-        <v>92679</v>
+        <v>598</v>
+      </c>
+      <c r="N78" t="s">
+        <v>599</v>
       </c>
       <c r="O78" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="P78" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="Q78" t="s">
-        <v>537</v>
+        <v>479</v>
       </c>
       <c r="R78" t="s">
         <v>31</v>
@@ -6817,78 +7129,78 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="B79" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D79" t="n">
-        <v>5500</v>
+        <v>500</v>
       </c>
       <c r="E79" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H79" t="s">
         <v>23</v>
       </c>
       <c r="I79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J79" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="K79" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="L79" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="M79" t="s">
-        <v>542</v>
-      </c>
-      <c r="N79" t="n">
-        <v>6084</v>
+        <v>606</v>
+      </c>
+      <c r="N79" t="s">
+        <v>607</v>
       </c>
       <c r="O79" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="P79" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="Q79" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="R79" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>612</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D80" t="n">
-        <v>3250</v>
+        <v>841</v>
       </c>
       <c r="E80" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G80" t="s">
         <v>22</v>
@@ -6897,31 +7209,31 @@
         <v>23</v>
       </c>
       <c r="I80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J80" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="K80" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M80" t="s">
-        <v>27</v>
-      </c>
-      <c r="N80" t="n">
-        <v>98281</v>
+        <v>615</v>
+      </c>
+      <c r="N80" t="s">
+        <v>616</v>
       </c>
       <c r="O80" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="P80" t="s">
-        <v>29</v>
+        <v>618</v>
       </c>
       <c r="Q80" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="R80" t="s">
         <v>31</v>
@@ -6929,111 +7241,111 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="B81" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D81" t="n">
-        <v>2225</v>
+        <v>550</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J81" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="K81" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="L81" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>555</v>
-      </c>
-      <c r="N81" t="n">
-        <v>97206</v>
+        <v>624</v>
+      </c>
+      <c r="N81" t="s">
+        <v>625</v>
       </c>
       <c r="O81" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="P81" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
       <c r="Q81" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="R81" t="s">
-        <v>559</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="B82" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D82" t="n">
-        <v>1800</v>
+        <v>2136</v>
       </c>
       <c r="E82" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J82" t="s">
-        <v>562</v>
+        <v>631</v>
       </c>
       <c r="K82" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="L82" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M82" t="s">
-        <v>564</v>
-      </c>
-      <c r="N82" t="n">
-        <v>8609</v>
+        <v>633</v>
+      </c>
+      <c r="N82" t="s">
+        <v>634</v>
       </c>
       <c r="O82" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="P82" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="Q82" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="R82" t="s">
         <v>31</v>
@@ -7041,111 +7353,111 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="B83" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D83" t="n">
-        <v>1200</v>
+        <v>5500</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J83" t="s">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="K83" t="s">
-        <v>571</v>
+        <v>641</v>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>572</v>
-      </c>
-      <c r="N83" t="n">
-        <v>84065</v>
+        <v>642</v>
+      </c>
+      <c r="N83" t="s">
+        <v>643</v>
       </c>
       <c r="O83" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="P83" t="s">
-        <v>574</v>
+        <v>645</v>
       </c>
       <c r="Q83" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="R83" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" t="s">
-        <v>576</v>
+        <v>647</v>
       </c>
       <c r="B84" t="s">
-        <v>577</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D84" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F84" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="H84" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J84" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="K84" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="L84" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="M84" t="s">
-        <v>580</v>
-      </c>
-      <c r="N84" t="n">
-        <v>44730</v>
+        <v>107</v>
+      </c>
+      <c r="N84" t="s">
+        <v>108</v>
       </c>
       <c r="O84" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="P84" t="s">
-        <v>582</v>
+        <v>110</v>
       </c>
       <c r="Q84" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="R84" t="s">
         <v>31</v>
@@ -7153,111 +7465,111 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="B85" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D85" t="n">
-        <v>1201</v>
+        <v>2225</v>
       </c>
       <c r="E85" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J85" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="K85" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="L85" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M85" t="s">
-        <v>588</v>
-      </c>
-      <c r="N85" t="n">
-        <v>46158</v>
+        <v>656</v>
+      </c>
+      <c r="N85" t="s">
+        <v>657</v>
       </c>
       <c r="O85" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="P85" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="Q85" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="R85" t="s">
-        <v>31</v>
+        <v>661</v>
       </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="B86" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D86" t="n">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H86" t="s">
         <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J86" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="K86" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="L86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M86" t="s">
-        <v>596</v>
-      </c>
-      <c r="N86" t="n">
-        <v>75070</v>
+        <v>666</v>
+      </c>
+      <c r="N86" t="s">
+        <v>667</v>
       </c>
       <c r="O86" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="P86" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="Q86" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="R86" t="s">
         <v>31</v>
@@ -7265,55 +7577,55 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" t="s">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="B87" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D87" t="n">
-        <v>6900</v>
+        <v>1200</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J87" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
       <c r="K87" t="s">
-        <v>603</v>
+        <v>674</v>
       </c>
       <c r="L87" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M87" t="s">
-        <v>604</v>
-      </c>
-      <c r="N87" t="n">
-        <v>90266</v>
+        <v>675</v>
+      </c>
+      <c r="N87" t="s">
+        <v>676</v>
       </c>
       <c r="O87" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="P87" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="Q87" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
       <c r="R87" t="s">
         <v>31</v>
@@ -7321,55 +7633,55 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="B88" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D88" t="n">
-        <v>600</v>
+        <v>4250</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H88" t="s">
         <v>23</v>
       </c>
       <c r="I88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J88" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="K88" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
       <c r="L88" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="M88" t="s">
-        <v>612</v>
-      </c>
-      <c r="N88" t="n">
-        <v>76201</v>
+        <v>684</v>
+      </c>
+      <c r="N88" t="s">
+        <v>685</v>
       </c>
       <c r="O88" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="P88" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="Q88" t="s">
-        <v>54</v>
+        <v>688</v>
       </c>
       <c r="R88" t="s">
         <v>31</v>
@@ -7377,111 +7689,111 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="B89" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D89" t="n">
-        <v>3800</v>
+        <v>1201</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H89" t="s">
         <v>23</v>
       </c>
       <c r="I89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J89" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
       <c r="K89" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="L89" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="M89" t="s">
-        <v>619</v>
-      </c>
-      <c r="N89" t="n">
-        <v>33441</v>
+        <v>693</v>
+      </c>
+      <c r="N89" t="s">
+        <v>694</v>
       </c>
       <c r="O89" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="P89" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="Q89" t="s">
-        <v>452</v>
+        <v>697</v>
       </c>
       <c r="R89" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="B90" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="D90" t="n">
-        <v>5000</v>
+        <v>1750</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H90" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J90" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="K90" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="L90" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M90" t="s">
-        <v>626</v>
-      </c>
-      <c r="N90" t="n">
-        <v>55128</v>
+        <v>702</v>
+      </c>
+      <c r="N90" t="s">
+        <v>703</v>
       </c>
       <c r="O90" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="P90" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="Q90" t="s">
-        <v>72</v>
+        <v>706</v>
       </c>
       <c r="R90" t="s">
         <v>31</v>
@@ -7489,55 +7801,55 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="B91" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D91" t="n">
-        <v>4000</v>
+        <v>6900</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H91" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J91" t="s">
-        <v>631</v>
+        <v>709</v>
       </c>
       <c r="K91" t="s">
-        <v>632</v>
+        <v>710</v>
       </c>
       <c r="L91" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M91" t="s">
-        <v>27</v>
-      </c>
-      <c r="N91" t="n">
-        <v>98281</v>
+        <v>711</v>
+      </c>
+      <c r="N91" t="s">
+        <v>712</v>
       </c>
       <c r="O91" t="s">
-        <v>633</v>
+        <v>713</v>
       </c>
       <c r="P91" t="s">
-        <v>29</v>
+        <v>714</v>
       </c>
       <c r="Q91" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="R91" t="s">
         <v>31</v>
@@ -7545,55 +7857,55 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="B92" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D92" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E92" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H92" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J92" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
       <c r="K92" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
       <c r="L92" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M92" t="s">
-        <v>639</v>
-      </c>
-      <c r="N92" t="n">
-        <v>23116</v>
+        <v>720</v>
+      </c>
+      <c r="N92" t="s">
+        <v>721</v>
       </c>
       <c r="O92" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="P92" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
       <c r="Q92" t="s">
-        <v>642</v>
+        <v>135</v>
       </c>
       <c r="R92" t="s">
         <v>31</v>
@@ -7601,111 +7913,111 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="B93" t="s">
-        <v>644</v>
+        <v>725</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D93" t="n">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="E93" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H93" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J93" t="s">
-        <v>645</v>
+        <v>726</v>
       </c>
       <c r="K93" t="s">
-        <v>646</v>
+        <v>727</v>
       </c>
       <c r="L93" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M93" t="s">
-        <v>647</v>
-      </c>
-      <c r="N93" t="n">
-        <v>48084</v>
+        <v>728</v>
+      </c>
+      <c r="N93" t="s">
+        <v>729</v>
       </c>
       <c r="O93" t="s">
-        <v>648</v>
+        <v>730</v>
       </c>
       <c r="P93" t="s">
-        <v>649</v>
+        <v>731</v>
       </c>
       <c r="Q93" t="s">
-        <v>650</v>
+        <v>541</v>
       </c>
       <c r="R93" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" t="s">
-        <v>651</v>
+        <v>732</v>
       </c>
       <c r="B94" t="s">
-        <v>652</v>
+        <v>733</v>
       </c>
       <c r="C94" t="s">
         <v>20</v>
       </c>
       <c r="D94" t="n">
-        <v>2990</v>
+        <v>5000</v>
       </c>
       <c r="E94" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F94" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J94" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="K94" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="L94" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M94" t="s">
-        <v>174</v>
-      </c>
-      <c r="N94" t="n">
-        <v>37920</v>
+        <v>736</v>
+      </c>
+      <c r="N94" t="s">
+        <v>737</v>
       </c>
       <c r="O94" t="s">
-        <v>655</v>
+        <v>738</v>
       </c>
       <c r="P94" t="s">
-        <v>656</v>
+        <v>739</v>
       </c>
       <c r="Q94" t="s">
-        <v>529</v>
+        <v>90</v>
       </c>
       <c r="R94" t="s">
         <v>31</v>
@@ -7713,55 +8025,55 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" t="s">
-        <v>657</v>
+        <v>740</v>
       </c>
       <c r="B95" t="s">
-        <v>658</v>
+        <v>741</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D95" t="n">
-        <v>5990</v>
+        <v>4000</v>
       </c>
       <c r="E95" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J95" t="s">
-        <v>659</v>
+        <v>742</v>
       </c>
       <c r="K95" t="s">
-        <v>660</v>
+        <v>743</v>
       </c>
       <c r="L95" t="n">
         <v>4</v>
       </c>
       <c r="M95" t="s">
-        <v>661</v>
-      </c>
-      <c r="N95" t="n">
-        <v>33484</v>
+        <v>107</v>
+      </c>
+      <c r="N95" t="s">
+        <v>744</v>
       </c>
       <c r="O95" t="s">
-        <v>662</v>
+        <v>745</v>
       </c>
       <c r="P95" t="s">
-        <v>663</v>
+        <v>110</v>
       </c>
       <c r="Q95" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="R95" t="s">
         <v>31</v>
@@ -7769,55 +8081,55 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="B96" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E96" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" t="s">
+        <v>23</v>
+      </c>
+      <c r="J96" t="s">
+        <v>749</v>
+      </c>
+      <c r="K96" t="s">
+        <v>750</v>
+      </c>
+      <c r="L96" t="n">
         <v>20</v>
       </c>
-      <c r="D96" t="n">
-        <v>1900</v>
-      </c>
-      <c r="E96" t="s">
-        <v>58</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="s">
-        <v>48</v>
-      </c>
-      <c r="H96" t="s">
-        <v>23</v>
-      </c>
-      <c r="I96" t="s">
-        <v>24</v>
-      </c>
-      <c r="J96" t="s">
-        <v>667</v>
-      </c>
-      <c r="K96" t="s">
-        <v>668</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3</v>
-      </c>
       <c r="M96" t="s">
-        <v>669</v>
-      </c>
-      <c r="N96" t="n">
-        <v>75081</v>
+        <v>751</v>
+      </c>
+      <c r="N96" t="s">
+        <v>752</v>
       </c>
       <c r="O96" t="s">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="P96" t="s">
-        <v>598</v>
+        <v>754</v>
       </c>
       <c r="Q96" t="s">
-        <v>671</v>
+        <v>755</v>
       </c>
       <c r="R96" t="s">
         <v>31</v>
@@ -7825,55 +8137,55 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" t="s">
-        <v>672</v>
+        <v>756</v>
       </c>
       <c r="B97" t="s">
-        <v>569</v>
+        <v>757</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D97" t="n">
-        <v>1475</v>
+        <v>4300</v>
       </c>
       <c r="E97" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J97" t="s">
-        <v>673</v>
+        <v>758</v>
       </c>
       <c r="K97" t="s">
-        <v>674</v>
+        <v>759</v>
       </c>
       <c r="L97" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M97" t="s">
-        <v>675</v>
-      </c>
-      <c r="N97" t="n">
-        <v>14850</v>
+        <v>760</v>
+      </c>
+      <c r="N97" t="s">
+        <v>761</v>
       </c>
       <c r="O97" t="s">
-        <v>676</v>
+        <v>762</v>
       </c>
       <c r="P97" t="s">
-        <v>677</v>
+        <v>763</v>
       </c>
       <c r="Q97" t="s">
-        <v>452</v>
+        <v>764</v>
       </c>
       <c r="R97" t="s">
         <v>31</v>
@@ -7881,55 +8193,55 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" t="s">
-        <v>678</v>
+        <v>765</v>
       </c>
       <c r="B98" t="s">
-        <v>679</v>
+        <v>766</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D98" t="n">
-        <v>3000</v>
+        <v>2990</v>
       </c>
       <c r="E98" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J98" t="s">
-        <v>680</v>
+        <v>767</v>
       </c>
       <c r="K98" t="s">
-        <v>681</v>
+        <v>768</v>
       </c>
       <c r="L98" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M98" t="s">
-        <v>682</v>
-      </c>
-      <c r="N98" t="n">
-        <v>43103</v>
+        <v>254</v>
+      </c>
+      <c r="N98" t="s">
+        <v>769</v>
       </c>
       <c r="O98" t="s">
-        <v>683</v>
+        <v>770</v>
       </c>
       <c r="P98" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
       <c r="Q98" t="s">
-        <v>685</v>
+        <v>628</v>
       </c>
       <c r="R98" t="s">
         <v>31</v>
@@ -7937,57 +8249,169 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" t="s">
-        <v>686</v>
+        <v>772</v>
       </c>
       <c r="B99" t="s">
-        <v>687</v>
+        <v>773</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D99" t="n">
-        <v>2400</v>
+        <v>5990</v>
       </c>
       <c r="E99" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" t="s">
+        <v>774</v>
+      </c>
+      <c r="K99" t="s">
+        <v>775</v>
+      </c>
+      <c r="L99" t="n">
+        <v>4</v>
+      </c>
+      <c r="M99" t="s">
+        <v>776</v>
+      </c>
+      <c r="N99" t="s">
+        <v>777</v>
+      </c>
+      <c r="O99" t="s">
+        <v>778</v>
+      </c>
+      <c r="P99" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>780</v>
+      </c>
+      <c r="R99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" t="s">
+        <v>781</v>
+      </c>
+      <c r="B100" t="s">
+        <v>782</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" t="s">
+        <v>37</v>
+      </c>
+      <c r="I100" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" t="s">
+        <v>783</v>
+      </c>
+      <c r="K100" t="s">
+        <v>784</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" t="s">
+        <v>785</v>
+      </c>
+      <c r="N100" t="s">
+        <v>786</v>
+      </c>
+      <c r="O100" t="s">
+        <v>787</v>
+      </c>
+      <c r="P100" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>788</v>
+      </c>
+      <c r="R100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" t="s">
+        <v>789</v>
+      </c>
+      <c r="B101" t="s">
+        <v>672</v>
+      </c>
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1475</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
         <v>22</v>
       </c>
-      <c r="H99" t="s">
-        <v>23</v>
-      </c>
-      <c r="I99" t="s">
-        <v>24</v>
-      </c>
-      <c r="J99" t="s">
-        <v>688</v>
-      </c>
-      <c r="K99" t="s">
-        <v>689</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2</v>
-      </c>
-      <c r="M99" t="s">
-        <v>27</v>
-      </c>
-      <c r="N99" t="n">
-        <v>98281</v>
-      </c>
-      <c r="O99" t="s">
-        <v>690</v>
-      </c>
-      <c r="P99" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>691</v>
-      </c>
-      <c r="R99" t="s">
+      <c r="H101" t="s">
+        <v>23</v>
+      </c>
+      <c r="I101" t="s">
+        <v>23</v>
+      </c>
+      <c r="J101" t="s">
+        <v>790</v>
+      </c>
+      <c r="K101" t="s">
+        <v>791</v>
+      </c>
+      <c r="L101" t="n">
+        <v>17</v>
+      </c>
+      <c r="M101" t="s">
+        <v>792</v>
+      </c>
+      <c r="N101" t="s">
+        <v>793</v>
+      </c>
+      <c r="O101" t="s">
+        <v>794</v>
+      </c>
+      <c r="P101" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>541</v>
+      </c>
+      <c r="R101" t="s">
         <v>31</v>
       </c>
     </row>
